--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE22AF-678F-46CF-ADB9-859965AA2A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HDB" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>HDB</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,94 +654,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>41182</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12196500</v>
+        <v>8458600</v>
       </c>
       <c r="E8" s="3">
+        <v>8550000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8340700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7815100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7336400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6549700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11243400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5819900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>10491500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="M8" s="3">
         <v>5068500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="N8" s="3">
         <v>1467400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>1285600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="3">
         <v>1232700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="Q8" s="3">
         <v>1103400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,8 +808,26 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +855,26 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,8 +886,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +921,26 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,8 +968,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,37 +1015,73 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-140000</v>
+        <v>-96300</v>
       </c>
       <c r="E15" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-69500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="L15" s="3">
         <v>-128400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="M15" s="3">
         <v>-62100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,66 +1090,108 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6936600</v>
+        <v>5012300</v>
       </c>
       <c r="E17" s="3">
+        <v>4938800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5041600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4770300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4212100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3872400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6394600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3382300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>5953300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>2907100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>814200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>768400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>735400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="Q17" s="3">
         <v>690500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5259900</v>
+        <v>3446400</v>
       </c>
       <c r="E18" s="3">
+        <v>3611300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3299100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3044700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3124300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2677300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4848800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2437700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="L18" s="3">
         <v>4538200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>2161400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>653300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>517200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>497300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>413000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,66 +1203,108 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1252900</v>
+        <v>-611600</v>
       </c>
       <c r="E20" s="3">
+        <v>-583200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-726500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-740600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-661900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-608000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1155000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-638000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="L20" s="3">
         <v>-1357500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
         <v>-746500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N20" s="3">
         <v>-348300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
         <v>-124400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="P20" s="3">
         <v>-167800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="Q20" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4146900</v>
+        <v>2931100</v>
       </c>
       <c r="E21" s="3">
+        <v>3116600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2655700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2391700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2552600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2142300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3822900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1869100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>3309100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="M21" s="3">
         <v>1477000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1130,66 +1332,120 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4007000</v>
+        <v>2834800</v>
       </c>
       <c r="E23" s="3">
+        <v>3028100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2572600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2304100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2462300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2069300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3693800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1799600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>3180700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>1414900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>305000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>392800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>329500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1421000</v>
+        <v>727100</v>
       </c>
       <c r="E24" s="3">
+        <v>790100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>663000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>743000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>865600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>725900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1310000</v>
+      </c>
+      <c r="K24" s="3">
         <v>648600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="L24" s="3">
         <v>1145600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="M24" s="3">
         <v>519600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="N24" s="3">
         <v>105800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="O24" s="3">
         <v>124000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="P24" s="3">
         <v>103900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="Q24" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1217,66 +1473,120 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2585900</v>
+        <v>2107700</v>
       </c>
       <c r="E26" s="3">
+        <v>2238000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1909600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1561100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1596700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1343400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2383900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1151000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>2035100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>895300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>199100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>268800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>225600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2581300</v>
+        <v>2106600</v>
       </c>
       <c r="E27" s="3">
+        <v>2238700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1910100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1559300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1592600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2379600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1149100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>2032100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>893700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>194600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>268800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>225600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1304,8 +1614,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1333,8 +1661,26 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1362,8 +1708,26 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1391,66 +1755,120 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1252900</v>
+        <v>611600</v>
       </c>
       <c r="E32" s="3">
+        <v>583200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>726500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>740600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>661900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>608000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="K32" s="3">
         <v>638000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="L32" s="3">
         <v>1357500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
         <v>746500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>348300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
         <v>124400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="P32" s="3">
         <v>167800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="Q32" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2581300</v>
+        <v>2106600</v>
       </c>
       <c r="E33" s="3">
+        <v>2238700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1910100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1559300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1592600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2379600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1149100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>2032100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>893700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>194600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>268800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>225600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1478,71 +1896,125 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2581300</v>
+        <v>2106600</v>
       </c>
       <c r="E35" s="3">
+        <v>2238700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1910100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1559300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1592600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2379600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1149100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>2032100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>893700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>194600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>268800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>225600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>41182</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1554,8 +2026,14 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1567,51 +2045,75 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8302200</v>
+        <v>12406200</v>
       </c>
       <c r="E41" s="3">
+        <v>7439200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8157400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9691600</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7653400</v>
+      </c>
+      <c r="K41" s="3">
         <v>6594700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>3944700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="O41" s="3">
         <v>3574500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="P41" s="3">
         <v>3862600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="Q41" s="3">
         <v>3302700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9399300</v>
+        <v>3599900</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+        <v>6999200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3332500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -1619,14 +2121,32 @@
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J42" s="3">
+        <v>8664700</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1654,8 +2174,26 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1683,8 +2221,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1712,8 +2268,26 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1741,8 +2315,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,66 +2362,120 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>563500</v>
+        <v>707700</v>
       </c>
       <c r="E48" s="3">
+        <v>671200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>644200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>594700</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>519400</v>
+      </c>
+      <c r="K48" s="3">
         <v>551600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>390900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="O48" s="3">
         <v>371500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="P48" s="3">
         <v>361500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="Q48" s="3">
         <v>333600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>998900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>998900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>998900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>998900</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>998900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1083600</v>
       </c>
-      <c r="E49" s="3">
-        <v>1083600</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1857,8 +2503,26 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1886,8 +2550,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1915,8 +2597,26 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1944,37 +2644,73 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>164371300</v>
+        <v>239670500</v>
       </c>
       <c r="E54" s="3">
+        <v>221534000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>212772000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>186125800</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>151526200</v>
+      </c>
+      <c r="K54" s="3">
         <v>144208100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>57888000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>55487200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>54568400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>49608100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1986,8 +2722,14 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1999,37 +2741,61 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6607600</v>
+        <v>1039300</v>
       </c>
       <c r="E57" s="3">
+        <v>1109900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1067500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>873300</v>
+      </c>
+      <c r="K57" s="3">
         <v>6715600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2057,37 +2823,73 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>8412500</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>6650700</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>8149000</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+        <v>6848800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>5217900</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2115,37 +2917,73 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13489800</v>
+        <v>15659500</v>
       </c>
       <c r="E61" s="3">
+        <v>13630100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>13683500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>12709500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12435600</v>
+      </c>
+      <c r="K61" s="3">
         <v>13317200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4772800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="O61" s="3">
         <v>4567100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="P61" s="3">
         <v>4478600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="Q61" s="3">
         <v>3591600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2173,8 +3011,26 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2202,8 +3058,26 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2231,8 +3105,26 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2260,37 +3152,73 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147392900</v>
+        <v>210882600</v>
       </c>
       <c r="E66" s="3">
+        <v>194646300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>187537200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>163053700</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>135874600</v>
+      </c>
+      <c r="K66" s="3">
         <v>128343500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>52651400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>50363100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>49746700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>45253100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2302,8 +3230,14 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2331,8 +3265,26 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2360,8 +3312,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2389,8 +3359,26 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2418,37 +3406,73 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10067000</v>
+        <v>17765000</v>
       </c>
       <c r="E72" s="3">
+        <v>15660200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>14254800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>12351300</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9280300</v>
+      </c>
+      <c r="K72" s="3">
         <v>8640600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>5167800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>5055600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>4753300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>4290100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2476,8 +3500,26 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2505,8 +3547,26 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2534,37 +3594,73 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16978400</v>
+        <v>28787800</v>
       </c>
       <c r="E76" s="3">
+        <v>26887800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>25234800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>23072100</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>15651600</v>
+      </c>
+      <c r="K76" s="3">
         <v>15864600</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>5236600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>5124100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>4821700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>4355000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2592,71 +3688,125 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>41182</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2581300</v>
+        <v>2106600</v>
       </c>
       <c r="E81" s="3">
+        <v>2238700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1910100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1559300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1592600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2379600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1149100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>2032100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>893700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>194600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>268800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>225600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2668,37 +3818,61 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>140000</v>
+        <v>96300</v>
       </c>
       <c r="E83" s="3">
+        <v>88500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>83000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>87600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>90300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K83" s="3">
         <v>69500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="L83" s="3">
         <v>128400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="M83" s="3">
         <v>62100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2726,8 +3900,26 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2755,8 +3947,26 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2784,8 +3994,26 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2813,8 +4041,26 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2842,37 +4088,73 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1363200</v>
+        <v>4986100</v>
       </c>
       <c r="E89" s="3">
+        <v>7301100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1146300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3428200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1013900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1429100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1256700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>5484300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>2250700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2884,37 +4166,61 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-132800</v>
+        <v>-119400</v>
       </c>
       <c r="E91" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-122400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-61700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="L91" s="3">
         <v>-182600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="M91" s="3">
         <v>-97700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2942,8 +4248,26 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2971,37 +4295,73 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29618800</v>
+        <v>-15992600</v>
       </c>
       <c r="E94" s="3">
+        <v>-17614300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-17152400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-11513600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-11047900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-9440000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-27304200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11319200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="L94" s="3">
         <v>-22820800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="M94" s="3">
         <v>-11543200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3013,37 +4373,61 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-498700</v>
+        <v>-1800</v>
       </c>
       <c r="E96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-879100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-544100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-459800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-492900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="L96" s="3">
         <v>-423400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="M96" s="3">
         <v>-419200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3071,8 +4455,26 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3100,8 +4502,26 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3129,91 +4549,163 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30322800</v>
+        <v>15955000</v>
       </c>
       <c r="E100" s="3">
+        <v>9616900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>16649800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>7954500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>12946400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>7281900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>27953200</v>
+      </c>
+      <c r="K100" s="3">
         <v>12292200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>18132500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>9478700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6900</v>
+        <v>18500</v>
       </c>
       <c r="E101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>114700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>26700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>85500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="L101" s="3">
         <v>-29000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="M101" s="3">
         <v>5100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2074200</v>
+        <v>4967000</v>
       </c>
       <c r="E102" s="3">
+        <v>-718300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1534200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2786000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-643600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1912100</v>
+      </c>
+      <c r="K102" s="3">
         <v>366700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>766900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>191400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>HDB</t>
   </si>
@@ -665,10 +665,9 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -738,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8458600</v>
+        <v>8293600</v>
       </c>
       <c r="E8" s="3">
-        <v>8550000</v>
+        <v>8383300</v>
       </c>
       <c r="F8" s="3">
-        <v>8340700</v>
+        <v>8178000</v>
       </c>
       <c r="G8" s="3">
-        <v>7815100</v>
+        <v>7662600</v>
       </c>
       <c r="H8" s="3">
-        <v>7336400</v>
+        <v>7193300</v>
       </c>
       <c r="I8" s="3">
-        <v>6549700</v>
+        <v>6421900</v>
       </c>
       <c r="J8" s="3">
-        <v>11243400</v>
+        <v>11024100</v>
       </c>
       <c r="K8" s="3">
         <v>5819900</v>
@@ -1039,25 +1038,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-96300</v>
+        <v>-94400</v>
       </c>
       <c r="E15" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="H15" s="3">
         <v>-88500</v>
       </c>
-      <c r="F15" s="3">
-        <v>-83000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-87600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-90300</v>
-      </c>
       <c r="I15" s="3">
-        <v>-73000</v>
+        <v>-71600</v>
       </c>
       <c r="J15" s="3">
-        <v>-129000</v>
+        <v>-126500</v>
       </c>
       <c r="K15" s="3">
         <v>-69500</v>
@@ -1102,25 +1101,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5012300</v>
+        <v>4914500</v>
       </c>
       <c r="E17" s="3">
-        <v>4938800</v>
+        <v>4842500</v>
       </c>
       <c r="F17" s="3">
-        <v>5041600</v>
+        <v>4943200</v>
       </c>
       <c r="G17" s="3">
-        <v>4770300</v>
+        <v>4677300</v>
       </c>
       <c r="H17" s="3">
-        <v>4212100</v>
+        <v>4130000</v>
       </c>
       <c r="I17" s="3">
-        <v>3872400</v>
+        <v>3796800</v>
       </c>
       <c r="J17" s="3">
-        <v>6394600</v>
+        <v>6269800</v>
       </c>
       <c r="K17" s="3">
         <v>3382300</v>
@@ -1149,25 +1148,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3446400</v>
+        <v>3379100</v>
       </c>
       <c r="E18" s="3">
-        <v>3611300</v>
+        <v>3540800</v>
       </c>
       <c r="F18" s="3">
-        <v>3299100</v>
+        <v>3234700</v>
       </c>
       <c r="G18" s="3">
-        <v>3044700</v>
+        <v>2985300</v>
       </c>
       <c r="H18" s="3">
-        <v>3124300</v>
+        <v>3063300</v>
       </c>
       <c r="I18" s="3">
-        <v>2677300</v>
+        <v>2625100</v>
       </c>
       <c r="J18" s="3">
-        <v>4848800</v>
+        <v>4754200</v>
       </c>
       <c r="K18" s="3">
         <v>2437700</v>
@@ -1215,25 +1214,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-611600</v>
+        <v>-599600</v>
       </c>
       <c r="E20" s="3">
-        <v>-583200</v>
+        <v>-571800</v>
       </c>
       <c r="F20" s="3">
-        <v>-726500</v>
+        <v>-712300</v>
       </c>
       <c r="G20" s="3">
-        <v>-740600</v>
+        <v>-726200</v>
       </c>
       <c r="H20" s="3">
-        <v>-661900</v>
+        <v>-649000</v>
       </c>
       <c r="I20" s="3">
-        <v>-608000</v>
+        <v>-596100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1155000</v>
+        <v>-1132500</v>
       </c>
       <c r="K20" s="3">
         <v>-638000</v>
@@ -1262,25 +1261,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2931100</v>
+        <v>2873900</v>
       </c>
       <c r="E21" s="3">
-        <v>3116600</v>
+        <v>3055800</v>
       </c>
       <c r="F21" s="3">
-        <v>2655700</v>
+        <v>2603900</v>
       </c>
       <c r="G21" s="3">
-        <v>2391700</v>
+        <v>2345000</v>
       </c>
       <c r="H21" s="3">
-        <v>2552600</v>
+        <v>2502800</v>
       </c>
       <c r="I21" s="3">
-        <v>2142300</v>
+        <v>2100600</v>
       </c>
       <c r="J21" s="3">
-        <v>3822900</v>
+        <v>3748300</v>
       </c>
       <c r="K21" s="3">
         <v>1869100</v>
@@ -1356,25 +1355,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2834800</v>
+        <v>2779500</v>
       </c>
       <c r="E23" s="3">
-        <v>3028100</v>
+        <v>2969000</v>
       </c>
       <c r="F23" s="3">
-        <v>2572600</v>
+        <v>2522400</v>
       </c>
       <c r="G23" s="3">
-        <v>2304100</v>
+        <v>2259200</v>
       </c>
       <c r="H23" s="3">
-        <v>2462300</v>
+        <v>2414300</v>
       </c>
       <c r="I23" s="3">
-        <v>2069300</v>
+        <v>2029000</v>
       </c>
       <c r="J23" s="3">
-        <v>3693800</v>
+        <v>3621800</v>
       </c>
       <c r="K23" s="3">
         <v>1799600</v>
@@ -1403,25 +1402,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>727100</v>
+        <v>712900</v>
       </c>
       <c r="E24" s="3">
-        <v>790100</v>
+        <v>774700</v>
       </c>
       <c r="F24" s="3">
-        <v>663000</v>
+        <v>650100</v>
       </c>
       <c r="G24" s="3">
-        <v>743000</v>
+        <v>728500</v>
       </c>
       <c r="H24" s="3">
-        <v>865600</v>
+        <v>848700</v>
       </c>
       <c r="I24" s="3">
-        <v>725900</v>
+        <v>711800</v>
       </c>
       <c r="J24" s="3">
-        <v>1310000</v>
+        <v>1284400</v>
       </c>
       <c r="K24" s="3">
         <v>648600</v>
@@ -1497,25 +1496,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2107700</v>
+        <v>2066600</v>
       </c>
       <c r="E26" s="3">
-        <v>2238000</v>
+        <v>2194300</v>
       </c>
       <c r="F26" s="3">
-        <v>1909600</v>
+        <v>1872300</v>
       </c>
       <c r="G26" s="3">
-        <v>1561100</v>
+        <v>1530600</v>
       </c>
       <c r="H26" s="3">
-        <v>1596700</v>
+        <v>1565600</v>
       </c>
       <c r="I26" s="3">
-        <v>1343400</v>
+        <v>1317200</v>
       </c>
       <c r="J26" s="3">
-        <v>2383900</v>
+        <v>2337400</v>
       </c>
       <c r="K26" s="3">
         <v>1151000</v>
@@ -1544,25 +1543,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2106600</v>
+        <v>2065500</v>
       </c>
       <c r="E27" s="3">
-        <v>2238700</v>
+        <v>2195000</v>
       </c>
       <c r="F27" s="3">
-        <v>1910100</v>
+        <v>1872900</v>
       </c>
       <c r="G27" s="3">
-        <v>1559300</v>
+        <v>1528900</v>
       </c>
       <c r="H27" s="3">
-        <v>1592600</v>
+        <v>1561600</v>
       </c>
       <c r="I27" s="3">
-        <v>1341400</v>
+        <v>1315200</v>
       </c>
       <c r="J27" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="K27" s="3">
         <v>1149100</v>
@@ -1779,25 +1778,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>611600</v>
+        <v>599600</v>
       </c>
       <c r="E32" s="3">
-        <v>583200</v>
+        <v>571800</v>
       </c>
       <c r="F32" s="3">
-        <v>726500</v>
+        <v>712300</v>
       </c>
       <c r="G32" s="3">
-        <v>740600</v>
+        <v>726200</v>
       </c>
       <c r="H32" s="3">
-        <v>661900</v>
+        <v>649000</v>
       </c>
       <c r="I32" s="3">
-        <v>608000</v>
+        <v>596100</v>
       </c>
       <c r="J32" s="3">
-        <v>1155000</v>
+        <v>1132500</v>
       </c>
       <c r="K32" s="3">
         <v>638000</v>
@@ -1826,25 +1825,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2106600</v>
+        <v>2065500</v>
       </c>
       <c r="E33" s="3">
-        <v>2238700</v>
+        <v>2195000</v>
       </c>
       <c r="F33" s="3">
-        <v>1910100</v>
+        <v>1872900</v>
       </c>
       <c r="G33" s="3">
-        <v>1559300</v>
+        <v>1528900</v>
       </c>
       <c r="H33" s="3">
-        <v>1592600</v>
+        <v>1561600</v>
       </c>
       <c r="I33" s="3">
-        <v>1341400</v>
+        <v>1315200</v>
       </c>
       <c r="J33" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="K33" s="3">
         <v>1149100</v>
@@ -1920,25 +1919,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2106600</v>
+        <v>2065500</v>
       </c>
       <c r="E35" s="3">
-        <v>2238700</v>
+        <v>2195000</v>
       </c>
       <c r="F35" s="3">
-        <v>1910100</v>
+        <v>1872900</v>
       </c>
       <c r="G35" s="3">
-        <v>1559300</v>
+        <v>1528900</v>
       </c>
       <c r="H35" s="3">
-        <v>1592600</v>
+        <v>1561600</v>
       </c>
       <c r="I35" s="3">
-        <v>1341400</v>
+        <v>1315200</v>
       </c>
       <c r="J35" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="K35" s="3">
         <v>1149100</v>
@@ -2057,25 +2056,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12406200</v>
+        <v>12164200</v>
       </c>
       <c r="E41" s="3">
-        <v>7439200</v>
+        <v>7294100</v>
       </c>
       <c r="F41" s="3">
-        <v>8157400</v>
+        <v>7998300</v>
       </c>
       <c r="G41" s="3">
-        <v>9691600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
-        <v>7653400</v>
+        <v>9502600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7504200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5960800</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="3">
         <v>6594700</v>
@@ -2104,25 +2103,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3599900</v>
+        <v>3529700</v>
       </c>
       <c r="E42" s="3">
-        <v>6999200</v>
+        <v>6862700</v>
       </c>
       <c r="F42" s="3">
-        <v>3332500</v>
+        <v>3267500</v>
       </c>
       <c r="G42" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
-        <v>8664700</v>
+        <v>6800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8495700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2386,25 +2385,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>707700</v>
+        <v>693900</v>
       </c>
       <c r="E48" s="3">
-        <v>671200</v>
+        <v>658100</v>
       </c>
       <c r="F48" s="3">
-        <v>644200</v>
+        <v>631600</v>
       </c>
       <c r="G48" s="3">
-        <v>594700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
-        <v>519400</v>
+        <v>583100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>509300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>498500</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>551600</v>
@@ -2433,25 +2432,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>998900</v>
+        <v>979400</v>
       </c>
       <c r="E49" s="3">
-        <v>998900</v>
+        <v>979400</v>
       </c>
       <c r="F49" s="3">
-        <v>998900</v>
+        <v>979400</v>
       </c>
       <c r="G49" s="3">
-        <v>998900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
-        <v>998900</v>
+        <v>979400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>979500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>979500</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>1083600</v>
@@ -2668,25 +2667,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>239670500</v>
+        <v>234995800</v>
       </c>
       <c r="E54" s="3">
-        <v>221534000</v>
+        <v>217213100</v>
       </c>
       <c r="F54" s="3">
-        <v>212772000</v>
+        <v>208621900</v>
       </c>
       <c r="G54" s="3">
-        <v>186125800</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
-        <v>151526200</v>
+        <v>182495400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>148570700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>130345700</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K54" s="3">
         <v>144208100</v>
@@ -2753,25 +2752,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1039300</v>
+        <v>1019100</v>
       </c>
       <c r="E57" s="3">
-        <v>1109900</v>
+        <v>1088200</v>
       </c>
       <c r="F57" s="3">
-        <v>1067500</v>
+        <v>1046600</v>
       </c>
       <c r="G57" s="3">
-        <v>1125000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
-        <v>873300</v>
+        <v>1103000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>856300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>886000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>6715600</v>
@@ -2847,25 +2846,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8412500</v>
+        <v>8248400</v>
       </c>
       <c r="E59" s="3">
-        <v>6650700</v>
+        <v>6520900</v>
       </c>
       <c r="F59" s="3">
-        <v>8149000</v>
+        <v>7990000</v>
       </c>
       <c r="G59" s="3">
-        <v>6848800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5217900</v>
+        <v>6715200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5116100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5184100</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2941,25 +2940,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15659500</v>
+        <v>15354100</v>
       </c>
       <c r="E61" s="3">
-        <v>13630100</v>
+        <v>13364200</v>
       </c>
       <c r="F61" s="3">
-        <v>13683500</v>
+        <v>13416600</v>
       </c>
       <c r="G61" s="3">
-        <v>12709500</v>
+        <v>12461600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12193100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>12037000</v>
       </c>
       <c r="J61" s="3">
-        <v>12435600</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>13317200</v>
@@ -3176,25 +3175,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>210882600</v>
+        <v>206769400</v>
       </c>
       <c r="E66" s="3">
-        <v>194646300</v>
+        <v>190849700</v>
       </c>
       <c r="F66" s="3">
-        <v>187537200</v>
+        <v>183879300</v>
       </c>
       <c r="G66" s="3">
-        <v>163053700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
-        <v>135874600</v>
+        <v>159873400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>133224400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>116006200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K66" s="3">
         <v>128343500</v>
@@ -3430,25 +3429,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17765000</v>
+        <v>17418500</v>
       </c>
       <c r="E72" s="3">
-        <v>15660200</v>
+        <v>15354800</v>
       </c>
       <c r="F72" s="3">
-        <v>14254800</v>
+        <v>13976800</v>
       </c>
       <c r="G72" s="3">
-        <v>12351300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
-        <v>9280300</v>
+        <v>12110400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>9099300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>7810000</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3">
         <v>8640600</v>
@@ -3618,25 +3617,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28787800</v>
+        <v>28226300</v>
       </c>
       <c r="E76" s="3">
-        <v>26887800</v>
+        <v>26363300</v>
       </c>
       <c r="F76" s="3">
-        <v>25234800</v>
+        <v>24742600</v>
       </c>
       <c r="G76" s="3">
-        <v>23072100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
-        <v>15651600</v>
+        <v>22622100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>15346300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>14339600</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K76" s="3">
         <v>15864600</v>
@@ -3764,25 +3763,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2106600</v>
+        <v>2065500</v>
       </c>
       <c r="E81" s="3">
-        <v>2238700</v>
+        <v>2195000</v>
       </c>
       <c r="F81" s="3">
-        <v>1910100</v>
+        <v>1872900</v>
       </c>
       <c r="G81" s="3">
-        <v>1559300</v>
+        <v>1528900</v>
       </c>
       <c r="H81" s="3">
-        <v>1592600</v>
+        <v>1561600</v>
       </c>
       <c r="I81" s="3">
-        <v>1341400</v>
+        <v>1315200</v>
       </c>
       <c r="J81" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="K81" s="3">
         <v>1149100</v>
@@ -3830,25 +3829,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>96300</v>
+        <v>94400</v>
       </c>
       <c r="E83" s="3">
+        <v>86700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>81400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>85900</v>
+      </c>
+      <c r="H83" s="3">
         <v>88500</v>
       </c>
-      <c r="F83" s="3">
-        <v>83000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>87600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>90300</v>
-      </c>
       <c r="I83" s="3">
-        <v>73000</v>
+        <v>71600</v>
       </c>
       <c r="J83" s="3">
-        <v>129000</v>
+        <v>126500</v>
       </c>
       <c r="K83" s="3">
         <v>69500</v>
@@ -4112,25 +4111,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4986100</v>
+        <v>4888900</v>
       </c>
       <c r="E89" s="3">
-        <v>7301100</v>
+        <v>7158700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1146300</v>
+        <v>-1124000</v>
       </c>
       <c r="G89" s="3">
-        <v>3428200</v>
+        <v>3361300</v>
       </c>
       <c r="H89" s="3">
-        <v>1013900</v>
+        <v>994200</v>
       </c>
       <c r="I89" s="3">
-        <v>1429100</v>
+        <v>1401200</v>
       </c>
       <c r="J89" s="3">
-        <v>1256700</v>
+        <v>1232200</v>
       </c>
       <c r="K89" s="3">
         <v>-600400</v>
@@ -4178,25 +4177,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-119400</v>
+        <v>-117100</v>
       </c>
       <c r="E91" s="3">
-        <v>-118000</v>
+        <v>-115700</v>
       </c>
       <c r="F91" s="3">
-        <v>-137000</v>
+        <v>-134300</v>
       </c>
       <c r="G91" s="3">
-        <v>-106900</v>
+        <v>-104800</v>
       </c>
       <c r="H91" s="3">
-        <v>-112400</v>
+        <v>-110200</v>
       </c>
       <c r="I91" s="3">
-        <v>-105600</v>
+        <v>-103500</v>
       </c>
       <c r="J91" s="3">
-        <v>-122400</v>
+        <v>-120000</v>
       </c>
       <c r="K91" s="3">
         <v>-61700</v>
@@ -4319,25 +4318,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15992600</v>
+        <v>-15680700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17614300</v>
+        <v>-17270700</v>
       </c>
       <c r="F94" s="3">
-        <v>-17152400</v>
+        <v>-16817900</v>
       </c>
       <c r="G94" s="3">
-        <v>-11513600</v>
+        <v>-11289000</v>
       </c>
       <c r="H94" s="3">
-        <v>-11047900</v>
+        <v>-10832500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9440000</v>
+        <v>-9255900</v>
       </c>
       <c r="J94" s="3">
-        <v>-27304200</v>
+        <v>-26771600</v>
       </c>
       <c r="K94" s="3">
         <v>-11319200</v>
@@ -4391,19 +4390,19 @@
         <v>-400</v>
       </c>
       <c r="F96" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="G96" s="3">
-        <v>-879100</v>
+        <v>-862000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I96" s="3">
-        <v>-544100</v>
+        <v>-533500</v>
       </c>
       <c r="J96" s="3">
-        <v>-459800</v>
+        <v>-450800</v>
       </c>
       <c r="K96" s="3">
         <v>-492900</v>
@@ -4573,25 +4572,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15955000</v>
+        <v>15643800</v>
       </c>
       <c r="E100" s="3">
-        <v>9616900</v>
+        <v>9429300</v>
       </c>
       <c r="F100" s="3">
-        <v>16649800</v>
+        <v>16325100</v>
       </c>
       <c r="G100" s="3">
-        <v>7954500</v>
+        <v>7799300</v>
       </c>
       <c r="H100" s="3">
-        <v>12946400</v>
+        <v>12693900</v>
       </c>
       <c r="I100" s="3">
-        <v>7281900</v>
+        <v>7139900</v>
       </c>
       <c r="J100" s="3">
-        <v>27953200</v>
+        <v>27408000</v>
       </c>
       <c r="K100" s="3">
         <v>12292200</v>
@@ -4620,25 +4619,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="E101" s="3">
-        <v>-22000</v>
+        <v>-21600</v>
       </c>
       <c r="F101" s="3">
-        <v>114700</v>
+        <v>112500</v>
       </c>
       <c r="G101" s="3">
-        <v>26700</v>
+        <v>26200</v>
       </c>
       <c r="H101" s="3">
-        <v>-126400</v>
+        <v>-123900</v>
       </c>
       <c r="I101" s="3">
-        <v>85500</v>
+        <v>83800</v>
       </c>
       <c r="J101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K101" s="3">
         <v>-5900</v>
@@ -4667,25 +4666,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4967000</v>
+        <v>4870100</v>
       </c>
       <c r="E102" s="3">
-        <v>-718300</v>
+        <v>-704200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1534200</v>
+        <v>-1504300</v>
       </c>
       <c r="G102" s="3">
-        <v>-104200</v>
+        <v>-102200</v>
       </c>
       <c r="H102" s="3">
-        <v>2786000</v>
+        <v>2731600</v>
       </c>
       <c r="I102" s="3">
-        <v>-643600</v>
+        <v>-631000</v>
       </c>
       <c r="J102" s="3">
-        <v>1912100</v>
+        <v>1874800</v>
       </c>
       <c r="K102" s="3">
         <v>366700</v>

--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8293600</v>
+        <v>8198400</v>
       </c>
       <c r="E8" s="3">
-        <v>8383300</v>
+        <v>8287100</v>
       </c>
       <c r="F8" s="3">
-        <v>8178000</v>
+        <v>8084100</v>
       </c>
       <c r="G8" s="3">
-        <v>7662600</v>
+        <v>7574700</v>
       </c>
       <c r="H8" s="3">
-        <v>7193300</v>
+        <v>7110700</v>
       </c>
       <c r="I8" s="3">
-        <v>6421900</v>
+        <v>6348200</v>
       </c>
       <c r="J8" s="3">
-        <v>11024100</v>
+        <v>10897600</v>
       </c>
       <c r="K8" s="3">
         <v>5819900</v>
@@ -1038,25 +1038,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-94400</v>
+        <v>-93300</v>
       </c>
       <c r="E15" s="3">
-        <v>-86700</v>
+        <v>-85700</v>
       </c>
       <c r="F15" s="3">
-        <v>-81400</v>
+        <v>-80500</v>
       </c>
       <c r="G15" s="3">
-        <v>-85900</v>
+        <v>-84900</v>
       </c>
       <c r="H15" s="3">
-        <v>-88500</v>
+        <v>-87500</v>
       </c>
       <c r="I15" s="3">
-        <v>-71600</v>
+        <v>-70800</v>
       </c>
       <c r="J15" s="3">
-        <v>-126500</v>
+        <v>-125100</v>
       </c>
       <c r="K15" s="3">
         <v>-69500</v>
@@ -1101,25 +1101,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4914500</v>
+        <v>4858100</v>
       </c>
       <c r="E17" s="3">
-        <v>4842500</v>
+        <v>4786900</v>
       </c>
       <c r="F17" s="3">
-        <v>4943200</v>
+        <v>4886500</v>
       </c>
       <c r="G17" s="3">
-        <v>4677300</v>
+        <v>4623600</v>
       </c>
       <c r="H17" s="3">
-        <v>4130000</v>
+        <v>4082600</v>
       </c>
       <c r="I17" s="3">
-        <v>3796800</v>
+        <v>3753300</v>
       </c>
       <c r="J17" s="3">
-        <v>6269800</v>
+        <v>6197900</v>
       </c>
       <c r="K17" s="3">
         <v>3382300</v>
@@ -1148,25 +1148,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3379100</v>
+        <v>3340300</v>
       </c>
       <c r="E18" s="3">
-        <v>3540800</v>
+        <v>3500200</v>
       </c>
       <c r="F18" s="3">
-        <v>3234700</v>
+        <v>3197600</v>
       </c>
       <c r="G18" s="3">
-        <v>2985300</v>
+        <v>2951100</v>
       </c>
       <c r="H18" s="3">
-        <v>3063300</v>
+        <v>3028200</v>
       </c>
       <c r="I18" s="3">
-        <v>2625100</v>
+        <v>2594900</v>
       </c>
       <c r="J18" s="3">
-        <v>4754200</v>
+        <v>4699700</v>
       </c>
       <c r="K18" s="3">
         <v>2437700</v>
@@ -1214,25 +1214,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-599600</v>
+        <v>-592800</v>
       </c>
       <c r="E20" s="3">
-        <v>-571800</v>
+        <v>-565200</v>
       </c>
       <c r="F20" s="3">
-        <v>-712300</v>
+        <v>-704100</v>
       </c>
       <c r="G20" s="3">
-        <v>-726200</v>
+        <v>-717900</v>
       </c>
       <c r="H20" s="3">
-        <v>-649000</v>
+        <v>-641600</v>
       </c>
       <c r="I20" s="3">
-        <v>-596100</v>
+        <v>-589300</v>
       </c>
       <c r="J20" s="3">
-        <v>-1132500</v>
+        <v>-1119500</v>
       </c>
       <c r="K20" s="3">
         <v>-638000</v>
@@ -1261,25 +1261,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2873900</v>
+        <v>2840900</v>
       </c>
       <c r="E21" s="3">
-        <v>3055800</v>
+        <v>3020700</v>
       </c>
       <c r="F21" s="3">
-        <v>2603900</v>
+        <v>2574000</v>
       </c>
       <c r="G21" s="3">
-        <v>2345000</v>
+        <v>2318100</v>
       </c>
       <c r="H21" s="3">
-        <v>2502800</v>
+        <v>2474100</v>
       </c>
       <c r="I21" s="3">
-        <v>2100600</v>
+        <v>2076400</v>
       </c>
       <c r="J21" s="3">
-        <v>3748300</v>
+        <v>3705300</v>
       </c>
       <c r="K21" s="3">
         <v>1869100</v>
@@ -1355,25 +1355,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2779500</v>
+        <v>2747600</v>
       </c>
       <c r="E23" s="3">
-        <v>2969000</v>
+        <v>2935000</v>
       </c>
       <c r="F23" s="3">
-        <v>2522400</v>
+        <v>2493500</v>
       </c>
       <c r="G23" s="3">
-        <v>2259200</v>
+        <v>2233200</v>
       </c>
       <c r="H23" s="3">
-        <v>2414300</v>
+        <v>2386600</v>
       </c>
       <c r="I23" s="3">
-        <v>2029000</v>
+        <v>2005700</v>
       </c>
       <c r="J23" s="3">
-        <v>3621800</v>
+        <v>3580200</v>
       </c>
       <c r="K23" s="3">
         <v>1799600</v>
@@ -1402,25 +1402,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>712900</v>
+        <v>704800</v>
       </c>
       <c r="E24" s="3">
-        <v>774700</v>
+        <v>765800</v>
       </c>
       <c r="F24" s="3">
-        <v>650100</v>
+        <v>642600</v>
       </c>
       <c r="G24" s="3">
-        <v>728500</v>
+        <v>720200</v>
       </c>
       <c r="H24" s="3">
-        <v>848700</v>
+        <v>839000</v>
       </c>
       <c r="I24" s="3">
-        <v>711800</v>
+        <v>703600</v>
       </c>
       <c r="J24" s="3">
-        <v>1284400</v>
+        <v>1269700</v>
       </c>
       <c r="K24" s="3">
         <v>648600</v>
@@ -1496,25 +1496,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2066600</v>
+        <v>2042800</v>
       </c>
       <c r="E26" s="3">
-        <v>2194300</v>
+        <v>2169200</v>
       </c>
       <c r="F26" s="3">
-        <v>1872300</v>
+        <v>1850800</v>
       </c>
       <c r="G26" s="3">
-        <v>1530600</v>
+        <v>1513100</v>
       </c>
       <c r="H26" s="3">
-        <v>1565600</v>
+        <v>1547600</v>
       </c>
       <c r="I26" s="3">
-        <v>1317200</v>
+        <v>1302100</v>
       </c>
       <c r="J26" s="3">
-        <v>2337400</v>
+        <v>2310500</v>
       </c>
       <c r="K26" s="3">
         <v>1151000</v>
@@ -1543,25 +1543,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2065500</v>
+        <v>2041800</v>
       </c>
       <c r="E27" s="3">
-        <v>2195000</v>
+        <v>2169800</v>
       </c>
       <c r="F27" s="3">
-        <v>1872900</v>
+        <v>1851400</v>
       </c>
       <c r="G27" s="3">
-        <v>1528900</v>
+        <v>1511300</v>
       </c>
       <c r="H27" s="3">
-        <v>1561600</v>
+        <v>1543600</v>
       </c>
       <c r="I27" s="3">
-        <v>1315200</v>
+        <v>1300100</v>
       </c>
       <c r="J27" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="K27" s="3">
         <v>1149100</v>
@@ -1778,25 +1778,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>599600</v>
+        <v>592800</v>
       </c>
       <c r="E32" s="3">
-        <v>571800</v>
+        <v>565200</v>
       </c>
       <c r="F32" s="3">
-        <v>712300</v>
+        <v>704100</v>
       </c>
       <c r="G32" s="3">
-        <v>726200</v>
+        <v>717900</v>
       </c>
       <c r="H32" s="3">
-        <v>649000</v>
+        <v>641600</v>
       </c>
       <c r="I32" s="3">
-        <v>596100</v>
+        <v>589300</v>
       </c>
       <c r="J32" s="3">
-        <v>1132500</v>
+        <v>1119500</v>
       </c>
       <c r="K32" s="3">
         <v>638000</v>
@@ -1825,25 +1825,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2065500</v>
+        <v>2041800</v>
       </c>
       <c r="E33" s="3">
-        <v>2195000</v>
+        <v>2169800</v>
       </c>
       <c r="F33" s="3">
-        <v>1872900</v>
+        <v>1851400</v>
       </c>
       <c r="G33" s="3">
-        <v>1528900</v>
+        <v>1511300</v>
       </c>
       <c r="H33" s="3">
-        <v>1561600</v>
+        <v>1543600</v>
       </c>
       <c r="I33" s="3">
-        <v>1315200</v>
+        <v>1300100</v>
       </c>
       <c r="J33" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="K33" s="3">
         <v>1149100</v>
@@ -1919,25 +1919,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2065500</v>
+        <v>2041800</v>
       </c>
       <c r="E35" s="3">
-        <v>2195000</v>
+        <v>2169800</v>
       </c>
       <c r="F35" s="3">
-        <v>1872900</v>
+        <v>1851400</v>
       </c>
       <c r="G35" s="3">
-        <v>1528900</v>
+        <v>1511300</v>
       </c>
       <c r="H35" s="3">
-        <v>1561600</v>
+        <v>1543600</v>
       </c>
       <c r="I35" s="3">
-        <v>1315200</v>
+        <v>1300100</v>
       </c>
       <c r="J35" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="K35" s="3">
         <v>1149100</v>
@@ -2056,22 +2056,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12164200</v>
+        <v>12024600</v>
       </c>
       <c r="E41" s="3">
-        <v>7294100</v>
+        <v>7210400</v>
       </c>
       <c r="F41" s="3">
-        <v>7998300</v>
+        <v>7906500</v>
       </c>
       <c r="G41" s="3">
-        <v>9502600</v>
+        <v>9393600</v>
       </c>
       <c r="H41" s="3">
-        <v>7504200</v>
+        <v>7418000</v>
       </c>
       <c r="I41" s="3">
-        <v>5960800</v>
+        <v>5892400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2103,19 +2103,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3529700</v>
+        <v>3489200</v>
       </c>
       <c r="E42" s="3">
-        <v>6862700</v>
+        <v>6783900</v>
       </c>
       <c r="F42" s="3">
-        <v>3267500</v>
+        <v>3230000</v>
       </c>
       <c r="G42" s="3">
         <v>6800</v>
       </c>
       <c r="H42" s="3">
-        <v>8495700</v>
+        <v>8398200</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2385,22 +2385,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>693900</v>
+        <v>686000</v>
       </c>
       <c r="E48" s="3">
-        <v>658100</v>
+        <v>650600</v>
       </c>
       <c r="F48" s="3">
-        <v>631600</v>
+        <v>624400</v>
       </c>
       <c r="G48" s="3">
-        <v>583100</v>
+        <v>576400</v>
       </c>
       <c r="H48" s="3">
-        <v>509300</v>
+        <v>503500</v>
       </c>
       <c r="I48" s="3">
-        <v>498500</v>
+        <v>492800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2432,22 +2432,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="E49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="F49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="G49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="H49" s="3">
-        <v>979500</v>
+        <v>968200</v>
       </c>
       <c r="I49" s="3">
-        <v>979500</v>
+        <v>968200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2667,22 +2667,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>234995800</v>
+        <v>232298800</v>
       </c>
       <c r="E54" s="3">
-        <v>217213100</v>
+        <v>214720200</v>
       </c>
       <c r="F54" s="3">
-        <v>208621900</v>
+        <v>206227600</v>
       </c>
       <c r="G54" s="3">
-        <v>182495400</v>
+        <v>180401000</v>
       </c>
       <c r="H54" s="3">
-        <v>148570700</v>
+        <v>146865600</v>
       </c>
       <c r="I54" s="3">
-        <v>130345700</v>
+        <v>128849800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -2752,22 +2752,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1019100</v>
+        <v>1007400</v>
       </c>
       <c r="E57" s="3">
-        <v>1088200</v>
+        <v>1075700</v>
       </c>
       <c r="F57" s="3">
-        <v>1046600</v>
+        <v>1034600</v>
       </c>
       <c r="G57" s="3">
-        <v>1103000</v>
+        <v>1090400</v>
       </c>
       <c r="H57" s="3">
-        <v>856300</v>
+        <v>846400</v>
       </c>
       <c r="I57" s="3">
-        <v>886000</v>
+        <v>875800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2846,22 +2846,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8248400</v>
+        <v>8153800</v>
       </c>
       <c r="E59" s="3">
-        <v>6520900</v>
+        <v>6446100</v>
       </c>
       <c r="F59" s="3">
-        <v>7990000</v>
+        <v>7898300</v>
       </c>
       <c r="G59" s="3">
-        <v>6715200</v>
+        <v>6638200</v>
       </c>
       <c r="H59" s="3">
-        <v>5116100</v>
+        <v>5057400</v>
       </c>
       <c r="I59" s="3">
-        <v>5184100</v>
+        <v>5124600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2940,22 +2940,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15354100</v>
+        <v>15177900</v>
       </c>
       <c r="E61" s="3">
-        <v>13364200</v>
+        <v>13210800</v>
       </c>
       <c r="F61" s="3">
-        <v>13416600</v>
+        <v>13262600</v>
       </c>
       <c r="G61" s="3">
-        <v>12461600</v>
+        <v>12318500</v>
       </c>
       <c r="H61" s="3">
-        <v>12193100</v>
+        <v>12053100</v>
       </c>
       <c r="I61" s="3">
-        <v>12037000</v>
+        <v>11898900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3175,22 +3175,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206769400</v>
+        <v>204396400</v>
       </c>
       <c r="E66" s="3">
-        <v>190849700</v>
+        <v>188659400</v>
       </c>
       <c r="F66" s="3">
-        <v>183879300</v>
+        <v>181769000</v>
       </c>
       <c r="G66" s="3">
-        <v>159873400</v>
+        <v>158038600</v>
       </c>
       <c r="H66" s="3">
-        <v>133224400</v>
+        <v>131695400</v>
       </c>
       <c r="I66" s="3">
-        <v>116006200</v>
+        <v>114674800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -3429,22 +3429,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17418500</v>
+        <v>17218600</v>
       </c>
       <c r="E72" s="3">
-        <v>15354800</v>
+        <v>15178600</v>
       </c>
       <c r="F72" s="3">
-        <v>13976800</v>
+        <v>13816400</v>
       </c>
       <c r="G72" s="3">
-        <v>12110400</v>
+        <v>11971400</v>
       </c>
       <c r="H72" s="3">
-        <v>9099300</v>
+        <v>8994900</v>
       </c>
       <c r="I72" s="3">
-        <v>7810000</v>
+        <v>7720400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -3617,22 +3617,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28226300</v>
+        <v>27902400</v>
       </c>
       <c r="E76" s="3">
-        <v>26363300</v>
+        <v>26060800</v>
       </c>
       <c r="F76" s="3">
-        <v>24742600</v>
+        <v>24458600</v>
       </c>
       <c r="G76" s="3">
-        <v>22622100</v>
+        <v>22362400</v>
       </c>
       <c r="H76" s="3">
-        <v>15346300</v>
+        <v>15170200</v>
       </c>
       <c r="I76" s="3">
-        <v>14339600</v>
+        <v>14175000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -3763,25 +3763,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2065500</v>
+        <v>2041800</v>
       </c>
       <c r="E81" s="3">
-        <v>2195000</v>
+        <v>2169800</v>
       </c>
       <c r="F81" s="3">
-        <v>1872900</v>
+        <v>1851400</v>
       </c>
       <c r="G81" s="3">
-        <v>1528900</v>
+        <v>1511300</v>
       </c>
       <c r="H81" s="3">
-        <v>1561600</v>
+        <v>1543600</v>
       </c>
       <c r="I81" s="3">
-        <v>1315200</v>
+        <v>1300100</v>
       </c>
       <c r="J81" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="K81" s="3">
         <v>1149100</v>
@@ -3829,25 +3829,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>94400</v>
+        <v>93300</v>
       </c>
       <c r="E83" s="3">
-        <v>86700</v>
+        <v>85700</v>
       </c>
       <c r="F83" s="3">
-        <v>81400</v>
+        <v>80500</v>
       </c>
       <c r="G83" s="3">
-        <v>85900</v>
+        <v>84900</v>
       </c>
       <c r="H83" s="3">
-        <v>88500</v>
+        <v>87500</v>
       </c>
       <c r="I83" s="3">
-        <v>71600</v>
+        <v>70800</v>
       </c>
       <c r="J83" s="3">
-        <v>126500</v>
+        <v>125100</v>
       </c>
       <c r="K83" s="3">
         <v>69500</v>
@@ -4111,25 +4111,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4888900</v>
+        <v>4832800</v>
       </c>
       <c r="E89" s="3">
-        <v>7158700</v>
+        <v>7076600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1124000</v>
+        <v>-1111100</v>
       </c>
       <c r="G89" s="3">
-        <v>3361300</v>
+        <v>3322700</v>
       </c>
       <c r="H89" s="3">
-        <v>994200</v>
+        <v>982800</v>
       </c>
       <c r="I89" s="3">
-        <v>1401200</v>
+        <v>1385100</v>
       </c>
       <c r="J89" s="3">
-        <v>1232200</v>
+        <v>1218000</v>
       </c>
       <c r="K89" s="3">
         <v>-600400</v>
@@ -4177,25 +4177,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117100</v>
+        <v>-115700</v>
       </c>
       <c r="E91" s="3">
-        <v>-115700</v>
+        <v>-114300</v>
       </c>
       <c r="F91" s="3">
-        <v>-134300</v>
+        <v>-132800</v>
       </c>
       <c r="G91" s="3">
-        <v>-104800</v>
+        <v>-103600</v>
       </c>
       <c r="H91" s="3">
-        <v>-110200</v>
+        <v>-109000</v>
       </c>
       <c r="I91" s="3">
-        <v>-103500</v>
+        <v>-102300</v>
       </c>
       <c r="J91" s="3">
-        <v>-120000</v>
+        <v>-118600</v>
       </c>
       <c r="K91" s="3">
         <v>-61700</v>
@@ -4318,25 +4318,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15680700</v>
+        <v>-15500700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17270700</v>
+        <v>-17072500</v>
       </c>
       <c r="F94" s="3">
-        <v>-16817900</v>
+        <v>-16624900</v>
       </c>
       <c r="G94" s="3">
-        <v>-11289000</v>
+        <v>-11159400</v>
       </c>
       <c r="H94" s="3">
-        <v>-10832500</v>
+        <v>-10708100</v>
       </c>
       <c r="I94" s="3">
-        <v>-9255900</v>
+        <v>-9149700</v>
       </c>
       <c r="J94" s="3">
-        <v>-26771600</v>
+        <v>-26464400</v>
       </c>
       <c r="K94" s="3">
         <v>-11319200</v>
@@ -4390,19 +4390,19 @@
         <v>-400</v>
       </c>
       <c r="F96" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="G96" s="3">
-        <v>-862000</v>
+        <v>-852100</v>
       </c>
       <c r="H96" s="3">
         <v>-2500</v>
       </c>
       <c r="I96" s="3">
-        <v>-533500</v>
+        <v>-527400</v>
       </c>
       <c r="J96" s="3">
-        <v>-450800</v>
+        <v>-445600</v>
       </c>
       <c r="K96" s="3">
         <v>-492900</v>
@@ -4572,25 +4572,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15643800</v>
+        <v>15464200</v>
       </c>
       <c r="E100" s="3">
-        <v>9429300</v>
+        <v>9321100</v>
       </c>
       <c r="F100" s="3">
-        <v>16325100</v>
+        <v>16137700</v>
       </c>
       <c r="G100" s="3">
-        <v>7799300</v>
+        <v>7709800</v>
       </c>
       <c r="H100" s="3">
-        <v>12693900</v>
+        <v>12548200</v>
       </c>
       <c r="I100" s="3">
-        <v>7139900</v>
+        <v>7058000</v>
       </c>
       <c r="J100" s="3">
-        <v>27408000</v>
+        <v>27093400</v>
       </c>
       <c r="K100" s="3">
         <v>12292200</v>
@@ -4619,25 +4619,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="E101" s="3">
-        <v>-21600</v>
+        <v>-21300</v>
       </c>
       <c r="F101" s="3">
-        <v>112500</v>
+        <v>111200</v>
       </c>
       <c r="G101" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="H101" s="3">
-        <v>-123900</v>
+        <v>-122500</v>
       </c>
       <c r="I101" s="3">
-        <v>83800</v>
+        <v>82800</v>
       </c>
       <c r="J101" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K101" s="3">
         <v>-5900</v>
@@ -4666,25 +4666,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4870100</v>
+        <v>4814200</v>
       </c>
       <c r="E102" s="3">
-        <v>-704200</v>
+        <v>-696200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1504300</v>
+        <v>-1487000</v>
       </c>
       <c r="G102" s="3">
-        <v>-102200</v>
+        <v>-101000</v>
       </c>
       <c r="H102" s="3">
-        <v>2731600</v>
+        <v>2700300</v>
       </c>
       <c r="I102" s="3">
-        <v>-631000</v>
+        <v>-623800</v>
       </c>
       <c r="J102" s="3">
-        <v>1874800</v>
+        <v>1853300</v>
       </c>
       <c r="K102" s="3">
         <v>366700</v>

--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>HDB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,133 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41364</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41274</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41182</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8198400</v>
+        <v>8614000</v>
       </c>
       <c r="E8" s="3">
-        <v>8287100</v>
+        <v>8076900</v>
       </c>
       <c r="F8" s="3">
-        <v>8084100</v>
+        <v>7944600</v>
       </c>
       <c r="G8" s="3">
-        <v>7574700</v>
+        <v>8030500</v>
       </c>
       <c r="H8" s="3">
-        <v>7110700</v>
+        <v>7833800</v>
       </c>
       <c r="I8" s="3">
+        <v>7340200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6890600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6348200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10897600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5819900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10491500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5068500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1467400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1285600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1232700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1103400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,8 +837,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +890,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +915,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +964,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1017,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,55 +1070,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-93300</v>
+        <v>-113500</v>
       </c>
       <c r="E15" s="3">
-        <v>-85700</v>
+        <v>-97000</v>
       </c>
       <c r="F15" s="3">
-        <v>-80500</v>
+        <v>-90400</v>
       </c>
       <c r="G15" s="3">
-        <v>-84900</v>
+        <v>-83100</v>
       </c>
       <c r="H15" s="3">
-        <v>-87500</v>
+        <v>-78000</v>
       </c>
       <c r="I15" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-70800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-125100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-69500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-128400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-62100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1145,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4858100</v>
+        <v>4574400</v>
       </c>
       <c r="E17" s="3">
-        <v>4786900</v>
+        <v>4330800</v>
       </c>
       <c r="F17" s="3">
-        <v>4886500</v>
+        <v>4707700</v>
       </c>
       <c r="G17" s="3">
-        <v>4623600</v>
+        <v>4638700</v>
       </c>
       <c r="H17" s="3">
-        <v>4082600</v>
+        <v>4735200</v>
       </c>
       <c r="I17" s="3">
+        <v>4480500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3956200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3753300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6197900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3382300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5953300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2907100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>814200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>768400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>735400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>690500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3340300</v>
+        <v>4039600</v>
       </c>
       <c r="E18" s="3">
-        <v>3500200</v>
+        <v>3746100</v>
       </c>
       <c r="F18" s="3">
-        <v>3197600</v>
+        <v>3236900</v>
       </c>
       <c r="G18" s="3">
-        <v>2951100</v>
+        <v>3391800</v>
       </c>
       <c r="H18" s="3">
-        <v>3028200</v>
+        <v>3098600</v>
       </c>
       <c r="I18" s="3">
+        <v>2859700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2934400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2594900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4699700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2437700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4538200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2161400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>653300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>517200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>497300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>413000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,102 +1272,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-592800</v>
+        <v>-713800</v>
       </c>
       <c r="E20" s="3">
-        <v>-565200</v>
+        <v>-571900</v>
       </c>
       <c r="F20" s="3">
-        <v>-704100</v>
+        <v>-574400</v>
       </c>
       <c r="G20" s="3">
-        <v>-717900</v>
+        <v>-547700</v>
       </c>
       <c r="H20" s="3">
-        <v>-641600</v>
+        <v>-682300</v>
       </c>
       <c r="I20" s="3">
+        <v>-695600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-621700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-589300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1119500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-638000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1357500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-746500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-348300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-124400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-167800</v>
       </c>
       <c r="Q20" s="3">
         <v>-124400</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-124400</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2840900</v>
+        <v>3439300</v>
       </c>
       <c r="E21" s="3">
-        <v>3020700</v>
+        <v>3271200</v>
       </c>
       <c r="F21" s="3">
-        <v>2574000</v>
+        <v>2753000</v>
       </c>
       <c r="G21" s="3">
-        <v>2318100</v>
+        <v>2927200</v>
       </c>
       <c r="H21" s="3">
-        <v>2474100</v>
+        <v>2494300</v>
       </c>
       <c r="I21" s="3">
+        <v>2246300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2397500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2076400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3705300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1869100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3309100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1477000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,102 +1427,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2747600</v>
+        <v>3325800</v>
       </c>
       <c r="E23" s="3">
-        <v>2935000</v>
+        <v>3174100</v>
       </c>
       <c r="F23" s="3">
-        <v>2493500</v>
+        <v>2662500</v>
       </c>
       <c r="G23" s="3">
-        <v>2233200</v>
+        <v>2844100</v>
       </c>
       <c r="H23" s="3">
-        <v>2386600</v>
+        <v>2416300</v>
       </c>
       <c r="I23" s="3">
+        <v>2164100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2312700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2005700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3580200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1799600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3180700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1414900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>305000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>392800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>329500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>704800</v>
+        <v>807500</v>
       </c>
       <c r="E24" s="3">
-        <v>765800</v>
+        <v>852100</v>
       </c>
       <c r="F24" s="3">
-        <v>642600</v>
+        <v>682900</v>
       </c>
       <c r="G24" s="3">
-        <v>720200</v>
+        <v>742100</v>
       </c>
       <c r="H24" s="3">
-        <v>839000</v>
+        <v>622700</v>
       </c>
       <c r="I24" s="3">
+        <v>697900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>813000</v>
+      </c>
+      <c r="K24" s="3">
         <v>703600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1269700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>648600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1145600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>519600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>105800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>124000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>103900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,102 +1586,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2042800</v>
+        <v>2518200</v>
       </c>
       <c r="E26" s="3">
-        <v>2169200</v>
+        <v>2322000</v>
       </c>
       <c r="F26" s="3">
-        <v>1850800</v>
+        <v>1979600</v>
       </c>
       <c r="G26" s="3">
-        <v>1513100</v>
+        <v>2102000</v>
       </c>
       <c r="H26" s="3">
-        <v>1547600</v>
+        <v>1793500</v>
       </c>
       <c r="I26" s="3">
+        <v>1466200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1499700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1302100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2310500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1151000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2035100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>895300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>199100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>268800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>225600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2041800</v>
+        <v>2512900</v>
       </c>
       <c r="E27" s="3">
-        <v>2169800</v>
+        <v>2319800</v>
       </c>
       <c r="F27" s="3">
-        <v>1851400</v>
+        <v>1978600</v>
       </c>
       <c r="G27" s="3">
-        <v>1511300</v>
+        <v>2102600</v>
       </c>
       <c r="H27" s="3">
-        <v>1543600</v>
+        <v>1794100</v>
       </c>
       <c r="I27" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1300100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2306400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1149100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2032100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>893700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>194600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>268800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>225600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1745,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1798,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1851,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,102 +1904,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>592800</v>
+        <v>713800</v>
       </c>
       <c r="E32" s="3">
-        <v>565200</v>
+        <v>571900</v>
       </c>
       <c r="F32" s="3">
-        <v>704100</v>
+        <v>574400</v>
       </c>
       <c r="G32" s="3">
-        <v>717900</v>
+        <v>547700</v>
       </c>
       <c r="H32" s="3">
-        <v>641600</v>
+        <v>682300</v>
       </c>
       <c r="I32" s="3">
+        <v>695600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>621700</v>
+      </c>
+      <c r="K32" s="3">
         <v>589300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1119500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>638000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1357500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>746500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>348300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>124400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>167800</v>
       </c>
       <c r="Q32" s="3">
         <v>124400</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>167800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>124400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2041800</v>
+        <v>2512900</v>
       </c>
       <c r="E33" s="3">
-        <v>2169800</v>
+        <v>2319800</v>
       </c>
       <c r="F33" s="3">
-        <v>1851400</v>
+        <v>1978600</v>
       </c>
       <c r="G33" s="3">
-        <v>1511300</v>
+        <v>2102600</v>
       </c>
       <c r="H33" s="3">
-        <v>1543600</v>
+        <v>1794100</v>
       </c>
       <c r="I33" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1300100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2306400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1149100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2032100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>893700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>194600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>268800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>225600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,107 +2063,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2041800</v>
+        <v>2512900</v>
       </c>
       <c r="E35" s="3">
-        <v>2169800</v>
+        <v>2319800</v>
       </c>
       <c r="F35" s="3">
-        <v>1851400</v>
+        <v>1978600</v>
       </c>
       <c r="G35" s="3">
-        <v>1511300</v>
+        <v>2102600</v>
       </c>
       <c r="H35" s="3">
-        <v>1543600</v>
+        <v>1794100</v>
       </c>
       <c r="I35" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1300100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2306400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1149100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2032100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>893700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>194600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>268800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>225600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41364</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41274</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>41182</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2199,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,78 +2220,86 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12024600</v>
+        <v>14047800</v>
       </c>
       <c r="E41" s="3">
-        <v>7210400</v>
+        <v>9489100</v>
       </c>
       <c r="F41" s="3">
-        <v>7906500</v>
+        <v>11652300</v>
       </c>
       <c r="G41" s="3">
-        <v>9393600</v>
+        <v>6987100</v>
       </c>
       <c r="H41" s="3">
-        <v>7418000</v>
+        <v>7661800</v>
       </c>
       <c r="I41" s="3">
+        <v>9102700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7188400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5892400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>6594700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>3944700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3574500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3862600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3302700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3489200</v>
+        <v>4670600</v>
       </c>
       <c r="E42" s="3">
-        <v>6783900</v>
+        <v>11449800</v>
       </c>
       <c r="F42" s="3">
-        <v>3230000</v>
+        <v>3381200</v>
       </c>
       <c r="G42" s="3">
-        <v>6800</v>
+        <v>6573900</v>
       </c>
       <c r="H42" s="3">
-        <v>8398200</v>
+        <v>3130000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
+        <v>6500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8138200</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2129,8 +2307,8 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
@@ -2144,8 +2322,14 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2191,8 +2375,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,8 +2428,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2285,8 +2481,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2332,8 +2534,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,88 +2587,100 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>686000</v>
+        <v>824100</v>
       </c>
       <c r="E48" s="3">
-        <v>650600</v>
+        <v>702800</v>
       </c>
       <c r="F48" s="3">
-        <v>624400</v>
+        <v>664700</v>
       </c>
       <c r="G48" s="3">
-        <v>576400</v>
+        <v>630400</v>
       </c>
       <c r="H48" s="3">
-        <v>503500</v>
+        <v>605100</v>
       </c>
       <c r="I48" s="3">
+        <v>558600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>487900</v>
+      </c>
+      <c r="K48" s="3">
         <v>492800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>551600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>390900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>371500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>361500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>333600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>938200</v>
+      </c>
+      <c r="K49" s="3">
         <v>968200</v>
       </c>
-      <c r="E49" s="3">
-        <v>968200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>968200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>968200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>968200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>968200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1083600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2473,8 +2693,14 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2746,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,8 +2799,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2614,8 +2852,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,55 +2905,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>232298800</v>
+        <v>264343600</v>
       </c>
       <c r="E54" s="3">
-        <v>214720200</v>
+        <v>237589000</v>
       </c>
       <c r="F54" s="3">
-        <v>206227600</v>
+        <v>225106900</v>
       </c>
       <c r="G54" s="3">
-        <v>180401000</v>
+        <v>208072500</v>
       </c>
       <c r="H54" s="3">
-        <v>146865600</v>
+        <v>199842900</v>
       </c>
       <c r="I54" s="3">
+        <v>174815800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>142318700</v>
+      </c>
+      <c r="K54" s="3">
         <v>128849800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>144208100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>57888000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>55487200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>54568400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>49608100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2983,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,41 +3004,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1007400</v>
+        <v>1031800</v>
       </c>
       <c r="E57" s="3">
-        <v>1075700</v>
+        <v>963700</v>
       </c>
       <c r="F57" s="3">
-        <v>1034600</v>
+        <v>976200</v>
       </c>
       <c r="G57" s="3">
-        <v>1090400</v>
+        <v>1042400</v>
       </c>
       <c r="H57" s="3">
-        <v>846400</v>
+        <v>1002600</v>
       </c>
       <c r="I57" s="3">
+        <v>1056600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>820200</v>
+      </c>
+      <c r="K57" s="3">
         <v>875800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>6715600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2793,8 +3053,14 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2840,37 +3106,43 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8153800</v>
+        <v>8531900</v>
       </c>
       <c r="E59" s="3">
-        <v>6446100</v>
+        <v>7410600</v>
       </c>
       <c r="F59" s="3">
-        <v>7898300</v>
+        <v>7901300</v>
       </c>
       <c r="G59" s="3">
-        <v>6638200</v>
+        <v>6246500</v>
       </c>
       <c r="H59" s="3">
-        <v>5057400</v>
+        <v>7653800</v>
       </c>
       <c r="I59" s="3">
+        <v>6432600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4900800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5124600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2887,8 +3159,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2934,55 +3212,67 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15177900</v>
+        <v>19460300</v>
       </c>
       <c r="E61" s="3">
-        <v>13210800</v>
+        <v>14967500</v>
       </c>
       <c r="F61" s="3">
-        <v>13262600</v>
+        <v>14708000</v>
       </c>
       <c r="G61" s="3">
-        <v>12318500</v>
+        <v>12801800</v>
       </c>
       <c r="H61" s="3">
-        <v>12053100</v>
+        <v>12852000</v>
       </c>
       <c r="I61" s="3">
+        <v>11937200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>11680000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11898900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>13317200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>4772800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4567100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4478600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3591600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3028,8 +3318,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3371,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3424,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,55 +3477,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>204396400</v>
+        <v>232983000</v>
       </c>
       <c r="E66" s="3">
-        <v>188659400</v>
+        <v>208287100</v>
       </c>
       <c r="F66" s="3">
-        <v>181769000</v>
+        <v>198068300</v>
       </c>
       <c r="G66" s="3">
-        <v>158038600</v>
+        <v>182818600</v>
       </c>
       <c r="H66" s="3">
-        <v>131695400</v>
+        <v>176141500</v>
       </c>
       <c r="I66" s="3">
+        <v>153145700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>127618200</v>
+      </c>
+      <c r="K66" s="3">
         <v>114674800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>128343500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>52651400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50363100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>49746700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>45253100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3555,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3604,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3657,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3376,8 +3710,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,55 +3763,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17218600</v>
+        <v>21064500</v>
       </c>
       <c r="E72" s="3">
-        <v>15178600</v>
+        <v>18553900</v>
       </c>
       <c r="F72" s="3">
-        <v>13816400</v>
+        <v>16685500</v>
       </c>
       <c r="G72" s="3">
-        <v>11971400</v>
+        <v>14708600</v>
       </c>
       <c r="H72" s="3">
-        <v>8994900</v>
+        <v>13388600</v>
       </c>
       <c r="I72" s="3">
+        <v>11600800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8716400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7720400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>8640600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>5167800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5055600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4753300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4290100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3869,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3922,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,55 +3975,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27902400</v>
+        <v>31360600</v>
       </c>
       <c r="E76" s="3">
-        <v>26060800</v>
+        <v>29301900</v>
       </c>
       <c r="F76" s="3">
-        <v>24458600</v>
+        <v>27038500</v>
       </c>
       <c r="G76" s="3">
-        <v>22362400</v>
+        <v>25253900</v>
       </c>
       <c r="H76" s="3">
-        <v>15170200</v>
+        <v>23701400</v>
       </c>
       <c r="I76" s="3">
+        <v>21670100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14700500</v>
+      </c>
+      <c r="K76" s="3">
         <v>14175000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>15864600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>5236600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5124100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4821700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4355000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,107 +4081,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41364</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41274</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>41182</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2041800</v>
+        <v>2512900</v>
       </c>
       <c r="E81" s="3">
-        <v>2169800</v>
+        <v>2319800</v>
       </c>
       <c r="F81" s="3">
-        <v>1851400</v>
+        <v>1978600</v>
       </c>
       <c r="G81" s="3">
-        <v>1511300</v>
+        <v>2102600</v>
       </c>
       <c r="H81" s="3">
-        <v>1543600</v>
+        <v>1794100</v>
       </c>
       <c r="I81" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1300100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2306400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1149100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2032100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>893700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>194600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>268800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>225600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,55 +4217,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>93300</v>
+        <v>113500</v>
       </c>
       <c r="E83" s="3">
-        <v>85700</v>
+        <v>97000</v>
       </c>
       <c r="F83" s="3">
-        <v>80500</v>
+        <v>90400</v>
       </c>
       <c r="G83" s="3">
-        <v>84900</v>
+        <v>83100</v>
       </c>
       <c r="H83" s="3">
-        <v>87500</v>
+        <v>78000</v>
       </c>
       <c r="I83" s="3">
+        <v>82300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K83" s="3">
         <v>70800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>125100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>69500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>128400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>62100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4319,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4372,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4425,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4478,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,55 +4531,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4832800</v>
+        <v>4254000</v>
       </c>
       <c r="E89" s="3">
-        <v>7076600</v>
+        <v>3020300</v>
       </c>
       <c r="F89" s="3">
-        <v>-1111100</v>
+        <v>4683200</v>
       </c>
       <c r="G89" s="3">
-        <v>3322700</v>
+        <v>6857500</v>
       </c>
       <c r="H89" s="3">
-        <v>982800</v>
+        <v>-1076700</v>
       </c>
       <c r="I89" s="3">
+        <v>3219900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>952300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1385100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1218000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5484300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2250700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,55 +4609,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115700</v>
+        <v>-190200</v>
       </c>
       <c r="E91" s="3">
-        <v>-114300</v>
+        <v>-139300</v>
       </c>
       <c r="F91" s="3">
-        <v>-132800</v>
+        <v>-112200</v>
       </c>
       <c r="G91" s="3">
-        <v>-103600</v>
+        <v>-110800</v>
       </c>
       <c r="H91" s="3">
-        <v>-109000</v>
+        <v>-128700</v>
       </c>
       <c r="I91" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-102300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-118600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-61700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-182600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-97700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4711,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,55 +4764,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15500700</v>
+        <v>-24952700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17072500</v>
+        <v>-16391800</v>
       </c>
       <c r="F94" s="3">
-        <v>-16624900</v>
+        <v>-15020800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11159400</v>
+        <v>-16544000</v>
       </c>
       <c r="H94" s="3">
-        <v>-10708100</v>
+        <v>-16110200</v>
       </c>
       <c r="I94" s="3">
+        <v>-10814000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-10376600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9149700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-26464400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11319200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22820800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11543200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,55 +4842,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1800</v>
+        <v>-2200</v>
       </c>
       <c r="E96" s="3">
+        <v>-451500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-400</v>
       </c>
-      <c r="F96" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-852100</v>
-      </c>
       <c r="H96" s="3">
-        <v>-2500</v>
+        <v>-6200</v>
       </c>
       <c r="I96" s="3">
+        <v>-825700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-527400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-445600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-492900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-423400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-419200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4944,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4997,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,145 +5050,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15464200</v>
+        <v>25238600</v>
       </c>
       <c r="E100" s="3">
-        <v>9321100</v>
+        <v>11221000</v>
       </c>
       <c r="F100" s="3">
-        <v>16137700</v>
+        <v>14985500</v>
       </c>
       <c r="G100" s="3">
-        <v>7709800</v>
+        <v>9032500</v>
       </c>
       <c r="H100" s="3">
-        <v>12548200</v>
+        <v>15638100</v>
       </c>
       <c r="I100" s="3">
+        <v>7471100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>12159700</v>
+      </c>
+      <c r="K100" s="3">
         <v>7058000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>27093400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12292200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>18132500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>9478700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17900</v>
+        <v>18800</v>
       </c>
       <c r="E101" s="3">
-        <v>-21300</v>
+        <v>-12700</v>
       </c>
       <c r="F101" s="3">
-        <v>111200</v>
+        <v>17400</v>
       </c>
       <c r="G101" s="3">
-        <v>25900</v>
+        <v>-20600</v>
       </c>
       <c r="H101" s="3">
-        <v>-122500</v>
+        <v>107800</v>
       </c>
       <c r="I101" s="3">
+        <v>25100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="K101" s="3">
         <v>82800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-29000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4814200</v>
+        <v>4558700</v>
       </c>
       <c r="E102" s="3">
-        <v>-696200</v>
+        <v>-2163200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1487000</v>
+        <v>4665200</v>
       </c>
       <c r="G102" s="3">
-        <v>-101000</v>
+        <v>-674600</v>
       </c>
       <c r="H102" s="3">
-        <v>2700300</v>
+        <v>-1441000</v>
       </c>
       <c r="I102" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2616700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-623800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1853300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>366700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>766900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>191400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -743,25 +743,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8614000</v>
+        <v>8531400</v>
       </c>
       <c r="E8" s="3">
-        <v>8076900</v>
+        <v>7999500</v>
       </c>
       <c r="F8" s="3">
-        <v>7944600</v>
+        <v>7868500</v>
       </c>
       <c r="G8" s="3">
-        <v>8030500</v>
+        <v>7953500</v>
       </c>
       <c r="H8" s="3">
-        <v>7833800</v>
+        <v>7758700</v>
       </c>
       <c r="I8" s="3">
-        <v>7340200</v>
+        <v>7269800</v>
       </c>
       <c r="J8" s="3">
-        <v>6890600</v>
+        <v>6824600</v>
       </c>
       <c r="K8" s="3">
         <v>6348200</v>
@@ -1082,25 +1082,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-113500</v>
+        <v>-112400</v>
       </c>
       <c r="E15" s="3">
-        <v>-97000</v>
+        <v>-96100</v>
       </c>
       <c r="F15" s="3">
-        <v>-90400</v>
+        <v>-89600</v>
       </c>
       <c r="G15" s="3">
-        <v>-83100</v>
+        <v>-82300</v>
       </c>
       <c r="H15" s="3">
-        <v>-78000</v>
+        <v>-77200</v>
       </c>
       <c r="I15" s="3">
-        <v>-82300</v>
+        <v>-81500</v>
       </c>
       <c r="J15" s="3">
-        <v>-84800</v>
+        <v>-84000</v>
       </c>
       <c r="K15" s="3">
         <v>-70800</v>
@@ -1153,25 +1153,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4574400</v>
+        <v>4530500</v>
       </c>
       <c r="E17" s="3">
-        <v>4330800</v>
+        <v>4289300</v>
       </c>
       <c r="F17" s="3">
-        <v>4707700</v>
+        <v>4662600</v>
       </c>
       <c r="G17" s="3">
-        <v>4638700</v>
+        <v>4594200</v>
       </c>
       <c r="H17" s="3">
-        <v>4735200</v>
+        <v>4689800</v>
       </c>
       <c r="I17" s="3">
-        <v>4480500</v>
+        <v>4437500</v>
       </c>
       <c r="J17" s="3">
-        <v>3956200</v>
+        <v>3918300</v>
       </c>
       <c r="K17" s="3">
         <v>3753300</v>
@@ -1206,25 +1206,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4039600</v>
+        <v>4000900</v>
       </c>
       <c r="E18" s="3">
-        <v>3746100</v>
+        <v>3710200</v>
       </c>
       <c r="F18" s="3">
-        <v>3236900</v>
+        <v>3205900</v>
       </c>
       <c r="G18" s="3">
-        <v>3391800</v>
+        <v>3359300</v>
       </c>
       <c r="H18" s="3">
-        <v>3098600</v>
+        <v>3068900</v>
       </c>
       <c r="I18" s="3">
-        <v>2859700</v>
+        <v>2832300</v>
       </c>
       <c r="J18" s="3">
-        <v>2934400</v>
+        <v>2906300</v>
       </c>
       <c r="K18" s="3">
         <v>2594900</v>
@@ -1280,25 +1280,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-713800</v>
+        <v>-707000</v>
       </c>
       <c r="E20" s="3">
-        <v>-571900</v>
+        <v>-566500</v>
       </c>
       <c r="F20" s="3">
-        <v>-574400</v>
+        <v>-568900</v>
       </c>
       <c r="G20" s="3">
-        <v>-547700</v>
+        <v>-542500</v>
       </c>
       <c r="H20" s="3">
-        <v>-682300</v>
+        <v>-675800</v>
       </c>
       <c r="I20" s="3">
-        <v>-695600</v>
+        <v>-689000</v>
       </c>
       <c r="J20" s="3">
-        <v>-621700</v>
+        <v>-615800</v>
       </c>
       <c r="K20" s="3">
         <v>-589300</v>
@@ -1333,25 +1333,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3439300</v>
+        <v>3406300</v>
       </c>
       <c r="E21" s="3">
-        <v>3271200</v>
+        <v>3239800</v>
       </c>
       <c r="F21" s="3">
-        <v>2753000</v>
+        <v>2726600</v>
       </c>
       <c r="G21" s="3">
-        <v>2927200</v>
+        <v>2899100</v>
       </c>
       <c r="H21" s="3">
-        <v>2494300</v>
+        <v>2470400</v>
       </c>
       <c r="I21" s="3">
-        <v>2246300</v>
+        <v>2224800</v>
       </c>
       <c r="J21" s="3">
-        <v>2397500</v>
+        <v>2374500</v>
       </c>
       <c r="K21" s="3">
         <v>2076400</v>
@@ -1439,25 +1439,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3325800</v>
+        <v>3293900</v>
       </c>
       <c r="E23" s="3">
-        <v>3174100</v>
+        <v>3143700</v>
       </c>
       <c r="F23" s="3">
-        <v>2662500</v>
+        <v>2637000</v>
       </c>
       <c r="G23" s="3">
-        <v>2844100</v>
+        <v>2816800</v>
       </c>
       <c r="H23" s="3">
-        <v>2416300</v>
+        <v>2393100</v>
       </c>
       <c r="I23" s="3">
-        <v>2164100</v>
+        <v>2143300</v>
       </c>
       <c r="J23" s="3">
-        <v>2312700</v>
+        <v>2290500</v>
       </c>
       <c r="K23" s="3">
         <v>2005700</v>
@@ -1492,25 +1492,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>807500</v>
+        <v>799800</v>
       </c>
       <c r="E24" s="3">
-        <v>852100</v>
+        <v>843900</v>
       </c>
       <c r="F24" s="3">
-        <v>682900</v>
+        <v>676400</v>
       </c>
       <c r="G24" s="3">
-        <v>742100</v>
+        <v>735000</v>
       </c>
       <c r="H24" s="3">
-        <v>622700</v>
+        <v>616800</v>
       </c>
       <c r="I24" s="3">
-        <v>697900</v>
+        <v>691200</v>
       </c>
       <c r="J24" s="3">
-        <v>813000</v>
+        <v>805200</v>
       </c>
       <c r="K24" s="3">
         <v>703600</v>
@@ -1598,25 +1598,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2518200</v>
+        <v>2494100</v>
       </c>
       <c r="E26" s="3">
-        <v>2322000</v>
+        <v>2299800</v>
       </c>
       <c r="F26" s="3">
-        <v>1979600</v>
+        <v>1960600</v>
       </c>
       <c r="G26" s="3">
-        <v>2102000</v>
+        <v>2081900</v>
       </c>
       <c r="H26" s="3">
-        <v>1793500</v>
+        <v>1776300</v>
       </c>
       <c r="I26" s="3">
-        <v>1466200</v>
+        <v>1452200</v>
       </c>
       <c r="J26" s="3">
-        <v>1499700</v>
+        <v>1485300</v>
       </c>
       <c r="K26" s="3">
         <v>1302100</v>
@@ -1651,25 +1651,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2512900</v>
+        <v>2488800</v>
       </c>
       <c r="E27" s="3">
-        <v>2319800</v>
+        <v>2297600</v>
       </c>
       <c r="F27" s="3">
-        <v>1978600</v>
+        <v>1959600</v>
       </c>
       <c r="G27" s="3">
-        <v>2102600</v>
+        <v>2082500</v>
       </c>
       <c r="H27" s="3">
-        <v>1794100</v>
+        <v>1776900</v>
       </c>
       <c r="I27" s="3">
-        <v>1464500</v>
+        <v>1450500</v>
       </c>
       <c r="J27" s="3">
-        <v>1495800</v>
+        <v>1481500</v>
       </c>
       <c r="K27" s="3">
         <v>1300100</v>
@@ -1916,25 +1916,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>713800</v>
+        <v>707000</v>
       </c>
       <c r="E32" s="3">
-        <v>571900</v>
+        <v>566500</v>
       </c>
       <c r="F32" s="3">
-        <v>574400</v>
+        <v>568900</v>
       </c>
       <c r="G32" s="3">
-        <v>547700</v>
+        <v>542500</v>
       </c>
       <c r="H32" s="3">
-        <v>682300</v>
+        <v>675800</v>
       </c>
       <c r="I32" s="3">
-        <v>695600</v>
+        <v>689000</v>
       </c>
       <c r="J32" s="3">
-        <v>621700</v>
+        <v>615800</v>
       </c>
       <c r="K32" s="3">
         <v>589300</v>
@@ -1969,25 +1969,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2512900</v>
+        <v>2488800</v>
       </c>
       <c r="E33" s="3">
-        <v>2319800</v>
+        <v>2297600</v>
       </c>
       <c r="F33" s="3">
-        <v>1978600</v>
+        <v>1959600</v>
       </c>
       <c r="G33" s="3">
-        <v>2102600</v>
+        <v>2082500</v>
       </c>
       <c r="H33" s="3">
-        <v>1794100</v>
+        <v>1776900</v>
       </c>
       <c r="I33" s="3">
-        <v>1464500</v>
+        <v>1450500</v>
       </c>
       <c r="J33" s="3">
-        <v>1495800</v>
+        <v>1481500</v>
       </c>
       <c r="K33" s="3">
         <v>1300100</v>
@@ -2075,25 +2075,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2512900</v>
+        <v>2488800</v>
       </c>
       <c r="E35" s="3">
-        <v>2319800</v>
+        <v>2297600</v>
       </c>
       <c r="F35" s="3">
-        <v>1978600</v>
+        <v>1959600</v>
       </c>
       <c r="G35" s="3">
-        <v>2102600</v>
+        <v>2082500</v>
       </c>
       <c r="H35" s="3">
-        <v>1794100</v>
+        <v>1776900</v>
       </c>
       <c r="I35" s="3">
-        <v>1464500</v>
+        <v>1450500</v>
       </c>
       <c r="J35" s="3">
-        <v>1495800</v>
+        <v>1481500</v>
       </c>
       <c r="K35" s="3">
         <v>1300100</v>
@@ -2228,25 +2228,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14047800</v>
+        <v>13913200</v>
       </c>
       <c r="E41" s="3">
-        <v>9489100</v>
+        <v>9398100</v>
       </c>
       <c r="F41" s="3">
-        <v>11652300</v>
+        <v>11540600</v>
       </c>
       <c r="G41" s="3">
-        <v>6987100</v>
+        <v>6920200</v>
       </c>
       <c r="H41" s="3">
-        <v>7661800</v>
+        <v>7588300</v>
       </c>
       <c r="I41" s="3">
-        <v>9102700</v>
+        <v>9015500</v>
       </c>
       <c r="J41" s="3">
-        <v>7188400</v>
+        <v>7119500</v>
       </c>
       <c r="K41" s="3">
         <v>5892400</v>
@@ -2281,25 +2281,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4670600</v>
+        <v>4625900</v>
       </c>
       <c r="E42" s="3">
-        <v>11449800</v>
+        <v>11340000</v>
       </c>
       <c r="F42" s="3">
-        <v>3381200</v>
+        <v>3348700</v>
       </c>
       <c r="G42" s="3">
-        <v>6573900</v>
+        <v>6510900</v>
       </c>
       <c r="H42" s="3">
-        <v>3130000</v>
+        <v>3100000</v>
       </c>
       <c r="I42" s="3">
         <v>6500</v>
       </c>
       <c r="J42" s="3">
-        <v>8138200</v>
+        <v>8060200</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>824100</v>
+        <v>816200</v>
       </c>
       <c r="E48" s="3">
-        <v>702800</v>
+        <v>696100</v>
       </c>
       <c r="F48" s="3">
-        <v>664700</v>
+        <v>658400</v>
       </c>
       <c r="G48" s="3">
-        <v>630400</v>
+        <v>624400</v>
       </c>
       <c r="H48" s="3">
-        <v>605100</v>
+        <v>599300</v>
       </c>
       <c r="I48" s="3">
-        <v>558600</v>
+        <v>553200</v>
       </c>
       <c r="J48" s="3">
-        <v>487900</v>
+        <v>483200</v>
       </c>
       <c r="K48" s="3">
         <v>492800</v>
@@ -2652,25 +2652,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="E49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="F49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="G49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="H49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="I49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="J49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="K49" s="3">
         <v>968200</v>
@@ -2917,25 +2917,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264343600</v>
+        <v>261809900</v>
       </c>
       <c r="E54" s="3">
-        <v>237589000</v>
+        <v>235311800</v>
       </c>
       <c r="F54" s="3">
-        <v>225106900</v>
+        <v>222949300</v>
       </c>
       <c r="G54" s="3">
-        <v>208072500</v>
+        <v>206078200</v>
       </c>
       <c r="H54" s="3">
-        <v>199842900</v>
+        <v>197927400</v>
       </c>
       <c r="I54" s="3">
-        <v>174815800</v>
+        <v>173140300</v>
       </c>
       <c r="J54" s="3">
-        <v>142318700</v>
+        <v>140954600</v>
       </c>
       <c r="K54" s="3">
         <v>128849800</v>
@@ -3012,25 +3012,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1031800</v>
+        <v>1021900</v>
       </c>
       <c r="E57" s="3">
-        <v>963700</v>
+        <v>954500</v>
       </c>
       <c r="F57" s="3">
-        <v>976200</v>
+        <v>966800</v>
       </c>
       <c r="G57" s="3">
-        <v>1042400</v>
+        <v>1032400</v>
       </c>
       <c r="H57" s="3">
-        <v>1002600</v>
+        <v>993000</v>
       </c>
       <c r="I57" s="3">
-        <v>1056600</v>
+        <v>1046500</v>
       </c>
       <c r="J57" s="3">
-        <v>820200</v>
+        <v>812400</v>
       </c>
       <c r="K57" s="3">
         <v>875800</v>
@@ -3118,25 +3118,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8531900</v>
+        <v>8450100</v>
       </c>
       <c r="E59" s="3">
-        <v>7410600</v>
+        <v>7339500</v>
       </c>
       <c r="F59" s="3">
-        <v>7901300</v>
+        <v>7825600</v>
       </c>
       <c r="G59" s="3">
-        <v>6246500</v>
+        <v>6186700</v>
       </c>
       <c r="H59" s="3">
-        <v>7653800</v>
+        <v>7580500</v>
       </c>
       <c r="I59" s="3">
-        <v>6432600</v>
+        <v>6371000</v>
       </c>
       <c r="J59" s="3">
-        <v>4900800</v>
+        <v>4853900</v>
       </c>
       <c r="K59" s="3">
         <v>5124600</v>
@@ -3224,25 +3224,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19460300</v>
+        <v>19273700</v>
       </c>
       <c r="E61" s="3">
-        <v>14967500</v>
+        <v>14824100</v>
       </c>
       <c r="F61" s="3">
-        <v>14708000</v>
+        <v>14567000</v>
       </c>
       <c r="G61" s="3">
-        <v>12801800</v>
+        <v>12679100</v>
       </c>
       <c r="H61" s="3">
-        <v>12852000</v>
+        <v>12728800</v>
       </c>
       <c r="I61" s="3">
-        <v>11937200</v>
+        <v>11822700</v>
       </c>
       <c r="J61" s="3">
-        <v>11680000</v>
+        <v>11568000</v>
       </c>
       <c r="K61" s="3">
         <v>11898900</v>
@@ -3489,25 +3489,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>232983000</v>
+        <v>230750000</v>
       </c>
       <c r="E66" s="3">
-        <v>208287100</v>
+        <v>206290700</v>
       </c>
       <c r="F66" s="3">
-        <v>198068300</v>
+        <v>196169900</v>
       </c>
       <c r="G66" s="3">
-        <v>182818600</v>
+        <v>181066300</v>
       </c>
       <c r="H66" s="3">
-        <v>176141500</v>
+        <v>174453200</v>
       </c>
       <c r="I66" s="3">
-        <v>153145700</v>
+        <v>151677900</v>
       </c>
       <c r="J66" s="3">
-        <v>127618200</v>
+        <v>126395000</v>
       </c>
       <c r="K66" s="3">
         <v>114674800</v>
@@ -3775,25 +3775,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21064500</v>
+        <v>20862600</v>
       </c>
       <c r="E72" s="3">
-        <v>18553900</v>
+        <v>18376000</v>
       </c>
       <c r="F72" s="3">
-        <v>16685500</v>
+        <v>16525600</v>
       </c>
       <c r="G72" s="3">
-        <v>14708600</v>
+        <v>14567700</v>
       </c>
       <c r="H72" s="3">
-        <v>13388600</v>
+        <v>13260300</v>
       </c>
       <c r="I72" s="3">
-        <v>11600800</v>
+        <v>11489600</v>
       </c>
       <c r="J72" s="3">
-        <v>8716400</v>
+        <v>8632900</v>
       </c>
       <c r="K72" s="3">
         <v>7720400</v>
@@ -3987,25 +3987,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31360600</v>
+        <v>31060000</v>
       </c>
       <c r="E76" s="3">
-        <v>29301900</v>
+        <v>29021100</v>
       </c>
       <c r="F76" s="3">
-        <v>27038500</v>
+        <v>26779400</v>
       </c>
       <c r="G76" s="3">
-        <v>25253900</v>
+        <v>25011900</v>
       </c>
       <c r="H76" s="3">
-        <v>23701400</v>
+        <v>23474200</v>
       </c>
       <c r="I76" s="3">
-        <v>21670100</v>
+        <v>21462400</v>
       </c>
       <c r="J76" s="3">
-        <v>14700500</v>
+        <v>14559600</v>
       </c>
       <c r="K76" s="3">
         <v>14175000</v>
@@ -4151,25 +4151,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2512900</v>
+        <v>2488800</v>
       </c>
       <c r="E81" s="3">
-        <v>2319800</v>
+        <v>2297600</v>
       </c>
       <c r="F81" s="3">
-        <v>1978600</v>
+        <v>1959600</v>
       </c>
       <c r="G81" s="3">
-        <v>2102600</v>
+        <v>2082500</v>
       </c>
       <c r="H81" s="3">
-        <v>1794100</v>
+        <v>1776900</v>
       </c>
       <c r="I81" s="3">
-        <v>1464500</v>
+        <v>1450500</v>
       </c>
       <c r="J81" s="3">
-        <v>1495800</v>
+        <v>1481500</v>
       </c>
       <c r="K81" s="3">
         <v>1300100</v>
@@ -4225,25 +4225,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>113500</v>
+        <v>112400</v>
       </c>
       <c r="E83" s="3">
-        <v>97000</v>
+        <v>96100</v>
       </c>
       <c r="F83" s="3">
-        <v>90400</v>
+        <v>89600</v>
       </c>
       <c r="G83" s="3">
-        <v>83100</v>
+        <v>82300</v>
       </c>
       <c r="H83" s="3">
-        <v>78000</v>
+        <v>77200</v>
       </c>
       <c r="I83" s="3">
-        <v>82300</v>
+        <v>81500</v>
       </c>
       <c r="J83" s="3">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="K83" s="3">
         <v>70800</v>
@@ -4543,25 +4543,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4254000</v>
+        <v>4213300</v>
       </c>
       <c r="E89" s="3">
-        <v>3020300</v>
+        <v>2991400</v>
       </c>
       <c r="F89" s="3">
-        <v>4683200</v>
+        <v>4638300</v>
       </c>
       <c r="G89" s="3">
-        <v>6857500</v>
+        <v>6791800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1076700</v>
+        <v>-1066400</v>
       </c>
       <c r="I89" s="3">
-        <v>3219900</v>
+        <v>3189000</v>
       </c>
       <c r="J89" s="3">
-        <v>952300</v>
+        <v>943200</v>
       </c>
       <c r="K89" s="3">
         <v>1385100</v>
@@ -4617,25 +4617,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-190200</v>
+        <v>-188400</v>
       </c>
       <c r="E91" s="3">
-        <v>-139300</v>
+        <v>-138000</v>
       </c>
       <c r="F91" s="3">
-        <v>-112200</v>
+        <v>-111100</v>
       </c>
       <c r="G91" s="3">
-        <v>-110800</v>
+        <v>-109700</v>
       </c>
       <c r="H91" s="3">
-        <v>-128700</v>
+        <v>-127400</v>
       </c>
       <c r="I91" s="3">
-        <v>-100400</v>
+        <v>-99400</v>
       </c>
       <c r="J91" s="3">
-        <v>-105600</v>
+        <v>-104600</v>
       </c>
       <c r="K91" s="3">
         <v>-102300</v>
@@ -4776,25 +4776,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24952700</v>
+        <v>-24713500</v>
       </c>
       <c r="E94" s="3">
-        <v>-16391800</v>
+        <v>-16234700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15020800</v>
+        <v>-14876900</v>
       </c>
       <c r="G94" s="3">
-        <v>-16544000</v>
+        <v>-16385400</v>
       </c>
       <c r="H94" s="3">
-        <v>-16110200</v>
+        <v>-15955800</v>
       </c>
       <c r="I94" s="3">
-        <v>-10814000</v>
+        <v>-10710300</v>
       </c>
       <c r="J94" s="3">
-        <v>-10376600</v>
+        <v>-10277200</v>
       </c>
       <c r="K94" s="3">
         <v>-9149700</v>
@@ -4853,19 +4853,19 @@
         <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-451500</v>
+        <v>-447100</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
       </c>
       <c r="G96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H96" s="3">
         <v>-6200</v>
       </c>
       <c r="I96" s="3">
-        <v>-825700</v>
+        <v>-817800</v>
       </c>
       <c r="J96" s="3">
         <v>-2400</v>
@@ -5062,25 +5062,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25238600</v>
+        <v>24996700</v>
       </c>
       <c r="E100" s="3">
-        <v>11221000</v>
+        <v>11113500</v>
       </c>
       <c r="F100" s="3">
-        <v>14985500</v>
+        <v>14841800</v>
       </c>
       <c r="G100" s="3">
-        <v>9032500</v>
+        <v>8945900</v>
       </c>
       <c r="H100" s="3">
-        <v>15638100</v>
+        <v>15488200</v>
       </c>
       <c r="I100" s="3">
-        <v>7471100</v>
+        <v>7399500</v>
       </c>
       <c r="J100" s="3">
-        <v>12159700</v>
+        <v>12043100</v>
       </c>
       <c r="K100" s="3">
         <v>7058000</v>
@@ -5115,25 +5115,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="E101" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="F101" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="G101" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="H101" s="3">
-        <v>107800</v>
+        <v>106700</v>
       </c>
       <c r="I101" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="J101" s="3">
-        <v>-118700</v>
+        <v>-117600</v>
       </c>
       <c r="K101" s="3">
         <v>82800</v>
@@ -5168,25 +5168,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4558700</v>
+        <v>4515000</v>
       </c>
       <c r="E102" s="3">
-        <v>-2163200</v>
+        <v>-2142500</v>
       </c>
       <c r="F102" s="3">
-        <v>4665200</v>
+        <v>4620400</v>
       </c>
       <c r="G102" s="3">
-        <v>-674600</v>
+        <v>-668100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1441000</v>
+        <v>-1427200</v>
       </c>
       <c r="I102" s="3">
-        <v>-97900</v>
+        <v>-96900</v>
       </c>
       <c r="J102" s="3">
-        <v>2616700</v>
+        <v>2591600</v>
       </c>
       <c r="K102" s="3">
         <v>-623800</v>

--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -743,25 +743,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8531400</v>
+        <v>8386900</v>
       </c>
       <c r="E8" s="3">
-        <v>7999500</v>
+        <v>7864000</v>
       </c>
       <c r="F8" s="3">
-        <v>7868500</v>
+        <v>7735200</v>
       </c>
       <c r="G8" s="3">
-        <v>7953500</v>
+        <v>7818800</v>
       </c>
       <c r="H8" s="3">
-        <v>7758700</v>
+        <v>7627400</v>
       </c>
       <c r="I8" s="3">
-        <v>7269800</v>
+        <v>7146700</v>
       </c>
       <c r="J8" s="3">
-        <v>6824600</v>
+        <v>6709000</v>
       </c>
       <c r="K8" s="3">
         <v>6348200</v>
@@ -1082,25 +1082,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-112400</v>
+        <v>-110500</v>
       </c>
       <c r="E15" s="3">
-        <v>-96100</v>
+        <v>-94500</v>
       </c>
       <c r="F15" s="3">
-        <v>-89600</v>
+        <v>-88100</v>
       </c>
       <c r="G15" s="3">
-        <v>-82300</v>
+        <v>-80900</v>
       </c>
       <c r="H15" s="3">
-        <v>-77200</v>
+        <v>-75900</v>
       </c>
       <c r="I15" s="3">
-        <v>-81500</v>
+        <v>-80100</v>
       </c>
       <c r="J15" s="3">
-        <v>-84000</v>
+        <v>-82500</v>
       </c>
       <c r="K15" s="3">
         <v>-70800</v>
@@ -1153,25 +1153,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4530500</v>
+        <v>4453800</v>
       </c>
       <c r="E17" s="3">
-        <v>4289300</v>
+        <v>4216700</v>
       </c>
       <c r="F17" s="3">
-        <v>4662600</v>
+        <v>4583600</v>
       </c>
       <c r="G17" s="3">
-        <v>4594200</v>
+        <v>4516400</v>
       </c>
       <c r="H17" s="3">
-        <v>4689800</v>
+        <v>4610400</v>
       </c>
       <c r="I17" s="3">
-        <v>4437500</v>
+        <v>4362400</v>
       </c>
       <c r="J17" s="3">
-        <v>3918300</v>
+        <v>3851900</v>
       </c>
       <c r="K17" s="3">
         <v>3753300</v>
@@ -1206,25 +1206,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4000900</v>
+        <v>3933100</v>
       </c>
       <c r="E18" s="3">
-        <v>3710200</v>
+        <v>3647300</v>
       </c>
       <c r="F18" s="3">
-        <v>3205900</v>
+        <v>3151600</v>
       </c>
       <c r="G18" s="3">
-        <v>3359300</v>
+        <v>3302400</v>
       </c>
       <c r="H18" s="3">
-        <v>3068900</v>
+        <v>3016900</v>
       </c>
       <c r="I18" s="3">
-        <v>2832300</v>
+        <v>2784300</v>
       </c>
       <c r="J18" s="3">
-        <v>2906300</v>
+        <v>2857100</v>
       </c>
       <c r="K18" s="3">
         <v>2594900</v>
@@ -1280,25 +1280,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-707000</v>
+        <v>-695000</v>
       </c>
       <c r="E20" s="3">
-        <v>-566500</v>
+        <v>-556900</v>
       </c>
       <c r="F20" s="3">
-        <v>-568900</v>
+        <v>-559300</v>
       </c>
       <c r="G20" s="3">
-        <v>-542500</v>
+        <v>-533300</v>
       </c>
       <c r="H20" s="3">
-        <v>-675800</v>
+        <v>-664300</v>
       </c>
       <c r="I20" s="3">
-        <v>-689000</v>
+        <v>-677300</v>
       </c>
       <c r="J20" s="3">
-        <v>-615800</v>
+        <v>-605300</v>
       </c>
       <c r="K20" s="3">
         <v>-589300</v>
@@ -1333,25 +1333,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3406300</v>
+        <v>3348600</v>
       </c>
       <c r="E21" s="3">
-        <v>3239800</v>
+        <v>3184900</v>
       </c>
       <c r="F21" s="3">
-        <v>2726600</v>
+        <v>2680400</v>
       </c>
       <c r="G21" s="3">
-        <v>2899100</v>
+        <v>2850000</v>
       </c>
       <c r="H21" s="3">
-        <v>2470400</v>
+        <v>2428500</v>
       </c>
       <c r="I21" s="3">
-        <v>2224800</v>
+        <v>2187100</v>
       </c>
       <c r="J21" s="3">
-        <v>2374500</v>
+        <v>2334300</v>
       </c>
       <c r="K21" s="3">
         <v>2076400</v>
@@ -1439,25 +1439,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3293900</v>
+        <v>3238100</v>
       </c>
       <c r="E23" s="3">
-        <v>3143700</v>
+        <v>3090500</v>
       </c>
       <c r="F23" s="3">
-        <v>2637000</v>
+        <v>2592400</v>
       </c>
       <c r="G23" s="3">
-        <v>2816800</v>
+        <v>2769100</v>
       </c>
       <c r="H23" s="3">
-        <v>2393100</v>
+        <v>2352600</v>
       </c>
       <c r="I23" s="3">
-        <v>2143300</v>
+        <v>2107000</v>
       </c>
       <c r="J23" s="3">
-        <v>2290500</v>
+        <v>2251800</v>
       </c>
       <c r="K23" s="3">
         <v>2005700</v>
@@ -1492,25 +1492,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>799800</v>
+        <v>786300</v>
       </c>
       <c r="E24" s="3">
-        <v>843900</v>
+        <v>829600</v>
       </c>
       <c r="F24" s="3">
-        <v>676400</v>
+        <v>664900</v>
       </c>
       <c r="G24" s="3">
-        <v>735000</v>
+        <v>722500</v>
       </c>
       <c r="H24" s="3">
-        <v>616800</v>
+        <v>606300</v>
       </c>
       <c r="I24" s="3">
-        <v>691200</v>
+        <v>679500</v>
       </c>
       <c r="J24" s="3">
-        <v>805200</v>
+        <v>791600</v>
       </c>
       <c r="K24" s="3">
         <v>703600</v>
@@ -1598,25 +1598,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2494100</v>
+        <v>2451900</v>
       </c>
       <c r="E26" s="3">
-        <v>2299800</v>
+        <v>2260800</v>
       </c>
       <c r="F26" s="3">
-        <v>1960600</v>
+        <v>1927400</v>
       </c>
       <c r="G26" s="3">
-        <v>2081900</v>
+        <v>2046600</v>
       </c>
       <c r="H26" s="3">
-        <v>1776300</v>
+        <v>1746300</v>
       </c>
       <c r="I26" s="3">
-        <v>1452200</v>
+        <v>1427600</v>
       </c>
       <c r="J26" s="3">
-        <v>1485300</v>
+        <v>1460200</v>
       </c>
       <c r="K26" s="3">
         <v>1302100</v>
@@ -1651,25 +1651,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2488800</v>
+        <v>2446700</v>
       </c>
       <c r="E27" s="3">
-        <v>2297600</v>
+        <v>2258700</v>
       </c>
       <c r="F27" s="3">
-        <v>1959600</v>
+        <v>1926500</v>
       </c>
       <c r="G27" s="3">
-        <v>2082500</v>
+        <v>2047200</v>
       </c>
       <c r="H27" s="3">
-        <v>1776900</v>
+        <v>1746800</v>
       </c>
       <c r="I27" s="3">
-        <v>1450500</v>
+        <v>1425900</v>
       </c>
       <c r="J27" s="3">
-        <v>1481500</v>
+        <v>1456400</v>
       </c>
       <c r="K27" s="3">
         <v>1300100</v>
@@ -1916,25 +1916,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>707000</v>
+        <v>695000</v>
       </c>
       <c r="E32" s="3">
-        <v>566500</v>
+        <v>556900</v>
       </c>
       <c r="F32" s="3">
-        <v>568900</v>
+        <v>559300</v>
       </c>
       <c r="G32" s="3">
-        <v>542500</v>
+        <v>533300</v>
       </c>
       <c r="H32" s="3">
-        <v>675800</v>
+        <v>664300</v>
       </c>
       <c r="I32" s="3">
-        <v>689000</v>
+        <v>677300</v>
       </c>
       <c r="J32" s="3">
-        <v>615800</v>
+        <v>605300</v>
       </c>
       <c r="K32" s="3">
         <v>589300</v>
@@ -1969,25 +1969,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2488800</v>
+        <v>2446700</v>
       </c>
       <c r="E33" s="3">
-        <v>2297600</v>
+        <v>2258700</v>
       </c>
       <c r="F33" s="3">
-        <v>1959600</v>
+        <v>1926500</v>
       </c>
       <c r="G33" s="3">
-        <v>2082500</v>
+        <v>2047200</v>
       </c>
       <c r="H33" s="3">
-        <v>1776900</v>
+        <v>1746800</v>
       </c>
       <c r="I33" s="3">
-        <v>1450500</v>
+        <v>1425900</v>
       </c>
       <c r="J33" s="3">
-        <v>1481500</v>
+        <v>1456400</v>
       </c>
       <c r="K33" s="3">
         <v>1300100</v>
@@ -2075,25 +2075,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2488800</v>
+        <v>2446700</v>
       </c>
       <c r="E35" s="3">
-        <v>2297600</v>
+        <v>2258700</v>
       </c>
       <c r="F35" s="3">
-        <v>1959600</v>
+        <v>1926500</v>
       </c>
       <c r="G35" s="3">
-        <v>2082500</v>
+        <v>2047200</v>
       </c>
       <c r="H35" s="3">
-        <v>1776900</v>
+        <v>1746800</v>
       </c>
       <c r="I35" s="3">
-        <v>1450500</v>
+        <v>1425900</v>
       </c>
       <c r="J35" s="3">
-        <v>1481500</v>
+        <v>1456400</v>
       </c>
       <c r="K35" s="3">
         <v>1300100</v>
@@ -2228,25 +2228,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13913200</v>
+        <v>13677600</v>
       </c>
       <c r="E41" s="3">
-        <v>9398100</v>
+        <v>9239000</v>
       </c>
       <c r="F41" s="3">
-        <v>11540600</v>
+        <v>11345200</v>
       </c>
       <c r="G41" s="3">
-        <v>6920200</v>
+        <v>6803000</v>
       </c>
       <c r="H41" s="3">
-        <v>7588300</v>
+        <v>7459800</v>
       </c>
       <c r="I41" s="3">
-        <v>9015500</v>
+        <v>8862800</v>
       </c>
       <c r="J41" s="3">
-        <v>7119500</v>
+        <v>6998900</v>
       </c>
       <c r="K41" s="3">
         <v>5892400</v>
@@ -2281,25 +2281,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4625900</v>
+        <v>4547500</v>
       </c>
       <c r="E42" s="3">
-        <v>11340000</v>
+        <v>11148000</v>
       </c>
       <c r="F42" s="3">
-        <v>3348700</v>
+        <v>3292000</v>
       </c>
       <c r="G42" s="3">
-        <v>6510900</v>
+        <v>6400600</v>
       </c>
       <c r="H42" s="3">
-        <v>3100000</v>
+        <v>3047500</v>
       </c>
       <c r="I42" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J42" s="3">
-        <v>8060200</v>
+        <v>7923700</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>816200</v>
+        <v>802400</v>
       </c>
       <c r="E48" s="3">
-        <v>696100</v>
+        <v>684300</v>
       </c>
       <c r="F48" s="3">
-        <v>658400</v>
+        <v>647200</v>
       </c>
       <c r="G48" s="3">
-        <v>624400</v>
+        <v>613800</v>
       </c>
       <c r="H48" s="3">
-        <v>599300</v>
+        <v>589100</v>
       </c>
       <c r="I48" s="3">
-        <v>553200</v>
+        <v>543900</v>
       </c>
       <c r="J48" s="3">
-        <v>483200</v>
+        <v>475000</v>
       </c>
       <c r="K48" s="3">
         <v>492800</v>
@@ -2652,25 +2652,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="E49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="F49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="G49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="H49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="I49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="J49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="K49" s="3">
         <v>968200</v>
@@ -2917,25 +2917,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>261809900</v>
+        <v>257376100</v>
       </c>
       <c r="E54" s="3">
-        <v>235311800</v>
+        <v>231326700</v>
       </c>
       <c r="F54" s="3">
-        <v>222949300</v>
+        <v>219173500</v>
       </c>
       <c r="G54" s="3">
-        <v>206078200</v>
+        <v>202588100</v>
       </c>
       <c r="H54" s="3">
-        <v>197927400</v>
+        <v>194575400</v>
       </c>
       <c r="I54" s="3">
-        <v>173140300</v>
+        <v>170208100</v>
       </c>
       <c r="J54" s="3">
-        <v>140954600</v>
+        <v>138567500</v>
       </c>
       <c r="K54" s="3">
         <v>128849800</v>
@@ -3012,25 +3012,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1021900</v>
+        <v>1004600</v>
       </c>
       <c r="E57" s="3">
-        <v>954500</v>
+        <v>938300</v>
       </c>
       <c r="F57" s="3">
-        <v>966800</v>
+        <v>950400</v>
       </c>
       <c r="G57" s="3">
-        <v>1032400</v>
+        <v>1015000</v>
       </c>
       <c r="H57" s="3">
-        <v>993000</v>
+        <v>976200</v>
       </c>
       <c r="I57" s="3">
-        <v>1046500</v>
+        <v>1028800</v>
       </c>
       <c r="J57" s="3">
-        <v>812400</v>
+        <v>798600</v>
       </c>
       <c r="K57" s="3">
         <v>875800</v>
@@ -3118,25 +3118,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8450100</v>
+        <v>8307000</v>
       </c>
       <c r="E59" s="3">
-        <v>7339500</v>
+        <v>7215300</v>
       </c>
       <c r="F59" s="3">
-        <v>7825600</v>
+        <v>7693100</v>
       </c>
       <c r="G59" s="3">
-        <v>6186700</v>
+        <v>6081900</v>
       </c>
       <c r="H59" s="3">
-        <v>7580500</v>
+        <v>7452100</v>
       </c>
       <c r="I59" s="3">
-        <v>6371000</v>
+        <v>6263100</v>
       </c>
       <c r="J59" s="3">
-        <v>4853900</v>
+        <v>4771700</v>
       </c>
       <c r="K59" s="3">
         <v>5124600</v>
@@ -3224,25 +3224,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19273700</v>
+        <v>18947300</v>
       </c>
       <c r="E61" s="3">
-        <v>14824100</v>
+        <v>14573000</v>
       </c>
       <c r="F61" s="3">
-        <v>14567000</v>
+        <v>14320300</v>
       </c>
       <c r="G61" s="3">
-        <v>12679100</v>
+        <v>12464400</v>
       </c>
       <c r="H61" s="3">
-        <v>12728800</v>
+        <v>12513300</v>
       </c>
       <c r="I61" s="3">
-        <v>11822700</v>
+        <v>11622500</v>
       </c>
       <c r="J61" s="3">
-        <v>11568000</v>
+        <v>11372100</v>
       </c>
       <c r="K61" s="3">
         <v>11898900</v>
@@ -3489,25 +3489,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>230750000</v>
+        <v>226842100</v>
       </c>
       <c r="E66" s="3">
-        <v>206290700</v>
+        <v>202797100</v>
       </c>
       <c r="F66" s="3">
-        <v>196169900</v>
+        <v>192847700</v>
       </c>
       <c r="G66" s="3">
-        <v>181066300</v>
+        <v>177999900</v>
       </c>
       <c r="H66" s="3">
-        <v>174453200</v>
+        <v>171498800</v>
       </c>
       <c r="I66" s="3">
-        <v>151677900</v>
+        <v>149109100</v>
       </c>
       <c r="J66" s="3">
-        <v>126395000</v>
+        <v>124254400</v>
       </c>
       <c r="K66" s="3">
         <v>114674800</v>
@@ -3775,25 +3775,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20862600</v>
+        <v>20509300</v>
       </c>
       <c r="E72" s="3">
-        <v>18376000</v>
+        <v>18064800</v>
       </c>
       <c r="F72" s="3">
-        <v>16525600</v>
+        <v>16245700</v>
       </c>
       <c r="G72" s="3">
-        <v>14567700</v>
+        <v>14321000</v>
       </c>
       <c r="H72" s="3">
-        <v>13260300</v>
+        <v>13035700</v>
       </c>
       <c r="I72" s="3">
-        <v>11489600</v>
+        <v>11295000</v>
       </c>
       <c r="J72" s="3">
-        <v>8632900</v>
+        <v>8486700</v>
       </c>
       <c r="K72" s="3">
         <v>7720400</v>
@@ -3987,25 +3987,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31060000</v>
+        <v>30534000</v>
       </c>
       <c r="E76" s="3">
-        <v>29021100</v>
+        <v>28529600</v>
       </c>
       <c r="F76" s="3">
-        <v>26779400</v>
+        <v>26325900</v>
       </c>
       <c r="G76" s="3">
-        <v>25011900</v>
+        <v>24588300</v>
       </c>
       <c r="H76" s="3">
-        <v>23474200</v>
+        <v>23076700</v>
       </c>
       <c r="I76" s="3">
-        <v>21462400</v>
+        <v>21098900</v>
       </c>
       <c r="J76" s="3">
-        <v>14559600</v>
+        <v>14313100</v>
       </c>
       <c r="K76" s="3">
         <v>14175000</v>
@@ -4151,25 +4151,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2488800</v>
+        <v>2446700</v>
       </c>
       <c r="E81" s="3">
-        <v>2297600</v>
+        <v>2258700</v>
       </c>
       <c r="F81" s="3">
-        <v>1959600</v>
+        <v>1926500</v>
       </c>
       <c r="G81" s="3">
-        <v>2082500</v>
+        <v>2047200</v>
       </c>
       <c r="H81" s="3">
-        <v>1776900</v>
+        <v>1746800</v>
       </c>
       <c r="I81" s="3">
-        <v>1450500</v>
+        <v>1425900</v>
       </c>
       <c r="J81" s="3">
-        <v>1481500</v>
+        <v>1456400</v>
       </c>
       <c r="K81" s="3">
         <v>1300100</v>
@@ -4225,25 +4225,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>112400</v>
+        <v>110500</v>
       </c>
       <c r="E83" s="3">
-        <v>96100</v>
+        <v>94500</v>
       </c>
       <c r="F83" s="3">
-        <v>89600</v>
+        <v>88100</v>
       </c>
       <c r="G83" s="3">
-        <v>82300</v>
+        <v>80900</v>
       </c>
       <c r="H83" s="3">
-        <v>77200</v>
+        <v>75900</v>
       </c>
       <c r="I83" s="3">
-        <v>81500</v>
+        <v>80100</v>
       </c>
       <c r="J83" s="3">
-        <v>84000</v>
+        <v>82500</v>
       </c>
       <c r="K83" s="3">
         <v>70800</v>
@@ -4543,25 +4543,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4213300</v>
+        <v>4141900</v>
       </c>
       <c r="E89" s="3">
-        <v>2991400</v>
+        <v>2940700</v>
       </c>
       <c r="F89" s="3">
-        <v>4638300</v>
+        <v>4559700</v>
       </c>
       <c r="G89" s="3">
-        <v>6791800</v>
+        <v>6676700</v>
       </c>
       <c r="H89" s="3">
-        <v>-1066400</v>
+        <v>-1048300</v>
       </c>
       <c r="I89" s="3">
-        <v>3189000</v>
+        <v>3135000</v>
       </c>
       <c r="J89" s="3">
-        <v>943200</v>
+        <v>927200</v>
       </c>
       <c r="K89" s="3">
         <v>1385100</v>
@@ -4617,25 +4617,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188400</v>
+        <v>-185200</v>
       </c>
       <c r="E91" s="3">
-        <v>-138000</v>
+        <v>-135700</v>
       </c>
       <c r="F91" s="3">
-        <v>-111100</v>
+        <v>-109200</v>
       </c>
       <c r="G91" s="3">
-        <v>-109700</v>
+        <v>-107900</v>
       </c>
       <c r="H91" s="3">
-        <v>-127400</v>
+        <v>-125300</v>
       </c>
       <c r="I91" s="3">
-        <v>-99400</v>
+        <v>-97700</v>
       </c>
       <c r="J91" s="3">
-        <v>-104600</v>
+        <v>-102800</v>
       </c>
       <c r="K91" s="3">
         <v>-102300</v>
@@ -4776,25 +4776,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24713500</v>
+        <v>-24295000</v>
       </c>
       <c r="E94" s="3">
-        <v>-16234700</v>
+        <v>-15959800</v>
       </c>
       <c r="F94" s="3">
-        <v>-14876900</v>
+        <v>-14624900</v>
       </c>
       <c r="G94" s="3">
-        <v>-16385400</v>
+        <v>-16107900</v>
       </c>
       <c r="H94" s="3">
-        <v>-15955800</v>
+        <v>-15685500</v>
       </c>
       <c r="I94" s="3">
-        <v>-10710300</v>
+        <v>-10528900</v>
       </c>
       <c r="J94" s="3">
-        <v>-10277200</v>
+        <v>-10103100</v>
       </c>
       <c r="K94" s="3">
         <v>-9149700</v>
@@ -4853,7 +4853,7 @@
         <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-447100</v>
+        <v>-439600</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
@@ -4862,10 +4862,10 @@
         <v>-300</v>
       </c>
       <c r="H96" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="I96" s="3">
-        <v>-817800</v>
+        <v>-803900</v>
       </c>
       <c r="J96" s="3">
         <v>-2400</v>
@@ -5062,25 +5062,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24996700</v>
+        <v>24573400</v>
       </c>
       <c r="E100" s="3">
-        <v>11113500</v>
+        <v>10925200</v>
       </c>
       <c r="F100" s="3">
-        <v>14841800</v>
+        <v>14590500</v>
       </c>
       <c r="G100" s="3">
-        <v>8945900</v>
+        <v>8794400</v>
       </c>
       <c r="H100" s="3">
-        <v>15488200</v>
+        <v>15225900</v>
       </c>
       <c r="I100" s="3">
-        <v>7399500</v>
+        <v>7274200</v>
       </c>
       <c r="J100" s="3">
-        <v>12043100</v>
+        <v>11839200</v>
       </c>
       <c r="K100" s="3">
         <v>7058000</v>
@@ -5115,25 +5115,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="E101" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="F101" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="G101" s="3">
-        <v>-20400</v>
+        <v>-20100</v>
       </c>
       <c r="H101" s="3">
-        <v>106700</v>
+        <v>104900</v>
       </c>
       <c r="I101" s="3">
-        <v>24800</v>
+        <v>24400</v>
       </c>
       <c r="J101" s="3">
-        <v>-117600</v>
+        <v>-115600</v>
       </c>
       <c r="K101" s="3">
         <v>82800</v>
@@ -5168,25 +5168,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4515000</v>
+        <v>4438600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2142500</v>
+        <v>-2106200</v>
       </c>
       <c r="F102" s="3">
-        <v>4620400</v>
+        <v>4542200</v>
       </c>
       <c r="G102" s="3">
-        <v>-668100</v>
+        <v>-656800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1427200</v>
+        <v>-1403000</v>
       </c>
       <c r="I102" s="3">
-        <v>-96900</v>
+        <v>-95300</v>
       </c>
       <c r="J102" s="3">
-        <v>2591600</v>
+        <v>2547700</v>
       </c>
       <c r="K102" s="3">
         <v>-623800</v>

--- a/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -743,25 +743,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8386900</v>
+        <v>8318100</v>
       </c>
       <c r="E8" s="3">
-        <v>7864000</v>
+        <v>7799500</v>
       </c>
       <c r="F8" s="3">
-        <v>7735200</v>
+        <v>7671800</v>
       </c>
       <c r="G8" s="3">
-        <v>7818800</v>
+        <v>7754700</v>
       </c>
       <c r="H8" s="3">
-        <v>7627400</v>
+        <v>7564800</v>
       </c>
       <c r="I8" s="3">
-        <v>7146700</v>
+        <v>7088100</v>
       </c>
       <c r="J8" s="3">
-        <v>6709000</v>
+        <v>6653900</v>
       </c>
       <c r="K8" s="3">
         <v>6348200</v>
@@ -1082,25 +1082,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-110500</v>
+        <v>-109600</v>
       </c>
       <c r="E15" s="3">
-        <v>-94500</v>
+        <v>-93700</v>
       </c>
       <c r="F15" s="3">
-        <v>-88100</v>
+        <v>-87300</v>
       </c>
       <c r="G15" s="3">
-        <v>-80900</v>
+        <v>-80200</v>
       </c>
       <c r="H15" s="3">
-        <v>-75900</v>
+        <v>-75300</v>
       </c>
       <c r="I15" s="3">
-        <v>-80100</v>
+        <v>-79400</v>
       </c>
       <c r="J15" s="3">
-        <v>-82500</v>
+        <v>-81900</v>
       </c>
       <c r="K15" s="3">
         <v>-70800</v>
@@ -1153,25 +1153,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4453800</v>
+        <v>4417300</v>
       </c>
       <c r="E17" s="3">
-        <v>4216700</v>
+        <v>4182100</v>
       </c>
       <c r="F17" s="3">
-        <v>4583600</v>
+        <v>4546000</v>
       </c>
       <c r="G17" s="3">
-        <v>4516400</v>
+        <v>4479400</v>
       </c>
       <c r="H17" s="3">
-        <v>4610400</v>
+        <v>4572600</v>
       </c>
       <c r="I17" s="3">
-        <v>4362400</v>
+        <v>4326600</v>
       </c>
       <c r="J17" s="3">
-        <v>3851900</v>
+        <v>3820300</v>
       </c>
       <c r="K17" s="3">
         <v>3753300</v>
@@ -1206,25 +1206,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3933100</v>
+        <v>3900900</v>
       </c>
       <c r="E18" s="3">
-        <v>3647300</v>
+        <v>3617400</v>
       </c>
       <c r="F18" s="3">
-        <v>3151600</v>
+        <v>3125800</v>
       </c>
       <c r="G18" s="3">
-        <v>3302400</v>
+        <v>3275300</v>
       </c>
       <c r="H18" s="3">
-        <v>3016900</v>
+        <v>2992200</v>
       </c>
       <c r="I18" s="3">
-        <v>2784300</v>
+        <v>2761500</v>
       </c>
       <c r="J18" s="3">
-        <v>2857100</v>
+        <v>2833600</v>
       </c>
       <c r="K18" s="3">
         <v>2594900</v>
@@ -1280,25 +1280,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-695000</v>
+        <v>-689300</v>
       </c>
       <c r="E20" s="3">
-        <v>-556900</v>
+        <v>-552300</v>
       </c>
       <c r="F20" s="3">
-        <v>-559300</v>
+        <v>-554700</v>
       </c>
       <c r="G20" s="3">
-        <v>-533300</v>
+        <v>-528900</v>
       </c>
       <c r="H20" s="3">
-        <v>-664300</v>
+        <v>-658900</v>
       </c>
       <c r="I20" s="3">
-        <v>-677300</v>
+        <v>-671700</v>
       </c>
       <c r="J20" s="3">
-        <v>-605300</v>
+        <v>-600400</v>
       </c>
       <c r="K20" s="3">
         <v>-589300</v>
@@ -1333,25 +1333,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3348600</v>
+        <v>3321200</v>
       </c>
       <c r="E21" s="3">
-        <v>3184900</v>
+        <v>3158800</v>
       </c>
       <c r="F21" s="3">
-        <v>2680400</v>
+        <v>2658400</v>
       </c>
       <c r="G21" s="3">
-        <v>2850000</v>
+        <v>2826700</v>
       </c>
       <c r="H21" s="3">
-        <v>2428500</v>
+        <v>2408600</v>
       </c>
       <c r="I21" s="3">
-        <v>2187100</v>
+        <v>2169200</v>
       </c>
       <c r="J21" s="3">
-        <v>2334300</v>
+        <v>2315100</v>
       </c>
       <c r="K21" s="3">
         <v>2076400</v>
@@ -1439,25 +1439,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3238100</v>
+        <v>3211500</v>
       </c>
       <c r="E23" s="3">
-        <v>3090500</v>
+        <v>3065100</v>
       </c>
       <c r="F23" s="3">
-        <v>2592400</v>
+        <v>2571100</v>
       </c>
       <c r="G23" s="3">
-        <v>2769100</v>
+        <v>2746400</v>
       </c>
       <c r="H23" s="3">
-        <v>2352600</v>
+        <v>2333300</v>
       </c>
       <c r="I23" s="3">
-        <v>2107000</v>
+        <v>2089800</v>
       </c>
       <c r="J23" s="3">
-        <v>2251800</v>
+        <v>2233300</v>
       </c>
       <c r="K23" s="3">
         <v>2005700</v>
@@ -1492,25 +1492,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>786300</v>
+        <v>779800</v>
       </c>
       <c r="E24" s="3">
-        <v>829600</v>
+        <v>822800</v>
       </c>
       <c r="F24" s="3">
-        <v>664900</v>
+        <v>659500</v>
       </c>
       <c r="G24" s="3">
-        <v>722500</v>
+        <v>716600</v>
       </c>
       <c r="H24" s="3">
-        <v>606300</v>
+        <v>601400</v>
       </c>
       <c r="I24" s="3">
-        <v>679500</v>
+        <v>673900</v>
       </c>
       <c r="J24" s="3">
-        <v>791600</v>
+        <v>785100</v>
       </c>
       <c r="K24" s="3">
         <v>703600</v>
@@ -1598,25 +1598,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2451900</v>
+        <v>2431700</v>
       </c>
       <c r="E26" s="3">
-        <v>2260800</v>
+        <v>2242300</v>
       </c>
       <c r="F26" s="3">
-        <v>1927400</v>
+        <v>1911600</v>
       </c>
       <c r="G26" s="3">
-        <v>2046600</v>
+        <v>2029800</v>
       </c>
       <c r="H26" s="3">
-        <v>1746300</v>
+        <v>1731900</v>
       </c>
       <c r="I26" s="3">
-        <v>1427600</v>
+        <v>1415900</v>
       </c>
       <c r="J26" s="3">
-        <v>1460200</v>
+        <v>1448200</v>
       </c>
       <c r="K26" s="3">
         <v>1302100</v>
@@ -1651,25 +1651,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2446700</v>
+        <v>2426600</v>
       </c>
       <c r="E27" s="3">
-        <v>2258700</v>
+        <v>2240100</v>
       </c>
       <c r="F27" s="3">
-        <v>1926500</v>
+        <v>1910600</v>
       </c>
       <c r="G27" s="3">
-        <v>2047200</v>
+        <v>2030400</v>
       </c>
       <c r="H27" s="3">
-        <v>1746800</v>
+        <v>1732400</v>
       </c>
       <c r="I27" s="3">
-        <v>1425900</v>
+        <v>1414200</v>
       </c>
       <c r="J27" s="3">
-        <v>1456400</v>
+        <v>1444500</v>
       </c>
       <c r="K27" s="3">
         <v>1300100</v>
@@ -1916,25 +1916,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>695000</v>
+        <v>689300</v>
       </c>
       <c r="E32" s="3">
-        <v>556900</v>
+        <v>552300</v>
       </c>
       <c r="F32" s="3">
-        <v>559300</v>
+        <v>554700</v>
       </c>
       <c r="G32" s="3">
-        <v>533300</v>
+        <v>528900</v>
       </c>
       <c r="H32" s="3">
-        <v>664300</v>
+        <v>658900</v>
       </c>
       <c r="I32" s="3">
-        <v>677300</v>
+        <v>671700</v>
       </c>
       <c r="J32" s="3">
-        <v>605300</v>
+        <v>600400</v>
       </c>
       <c r="K32" s="3">
         <v>589300</v>
@@ -1969,25 +1969,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2446700</v>
+        <v>2426600</v>
       </c>
       <c r="E33" s="3">
-        <v>2258700</v>
+        <v>2240100</v>
       </c>
       <c r="F33" s="3">
-        <v>1926500</v>
+        <v>1910600</v>
       </c>
       <c r="G33" s="3">
-        <v>2047200</v>
+        <v>2030400</v>
       </c>
       <c r="H33" s="3">
-        <v>1746800</v>
+        <v>1732400</v>
       </c>
       <c r="I33" s="3">
-        <v>1425900</v>
+        <v>1414200</v>
       </c>
       <c r="J33" s="3">
-        <v>1456400</v>
+        <v>1444500</v>
       </c>
       <c r="K33" s="3">
         <v>1300100</v>
@@ -2075,25 +2075,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2446700</v>
+        <v>2426600</v>
       </c>
       <c r="E35" s="3">
-        <v>2258700</v>
+        <v>2240100</v>
       </c>
       <c r="F35" s="3">
-        <v>1926500</v>
+        <v>1910600</v>
       </c>
       <c r="G35" s="3">
-        <v>2047200</v>
+        <v>2030400</v>
       </c>
       <c r="H35" s="3">
-        <v>1746800</v>
+        <v>1732400</v>
       </c>
       <c r="I35" s="3">
-        <v>1425900</v>
+        <v>1414200</v>
       </c>
       <c r="J35" s="3">
-        <v>1456400</v>
+        <v>1444500</v>
       </c>
       <c r="K35" s="3">
         <v>1300100</v>
@@ -2228,25 +2228,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13677600</v>
+        <v>13565400</v>
       </c>
       <c r="E41" s="3">
-        <v>9239000</v>
+        <v>9163200</v>
       </c>
       <c r="F41" s="3">
-        <v>11345200</v>
+        <v>11252100</v>
       </c>
       <c r="G41" s="3">
-        <v>6803000</v>
+        <v>6747200</v>
       </c>
       <c r="H41" s="3">
-        <v>7459800</v>
+        <v>7398600</v>
       </c>
       <c r="I41" s="3">
-        <v>8862800</v>
+        <v>8790100</v>
       </c>
       <c r="J41" s="3">
-        <v>6998900</v>
+        <v>6941500</v>
       </c>
       <c r="K41" s="3">
         <v>5892400</v>
@@ -2281,25 +2281,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4547500</v>
+        <v>4510200</v>
       </c>
       <c r="E42" s="3">
-        <v>11148000</v>
+        <v>11056500</v>
       </c>
       <c r="F42" s="3">
-        <v>3292000</v>
+        <v>3265000</v>
       </c>
       <c r="G42" s="3">
-        <v>6400600</v>
+        <v>6348100</v>
       </c>
       <c r="H42" s="3">
-        <v>3047500</v>
+        <v>3022500</v>
       </c>
       <c r="I42" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J42" s="3">
-        <v>7923700</v>
+        <v>7858700</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>802400</v>
+        <v>795800</v>
       </c>
       <c r="E48" s="3">
-        <v>684300</v>
+        <v>678700</v>
       </c>
       <c r="F48" s="3">
-        <v>647200</v>
+        <v>641900</v>
       </c>
       <c r="G48" s="3">
-        <v>613800</v>
+        <v>608800</v>
       </c>
       <c r="H48" s="3">
-        <v>589100</v>
+        <v>584300</v>
       </c>
       <c r="I48" s="3">
-        <v>543900</v>
+        <v>539400</v>
       </c>
       <c r="J48" s="3">
-        <v>475000</v>
+        <v>471100</v>
       </c>
       <c r="K48" s="3">
         <v>492800</v>
@@ -2652,25 +2652,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="E49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="F49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="G49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="H49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="I49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="J49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="K49" s="3">
         <v>968200</v>
@@ -2917,25 +2917,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>257376100</v>
+        <v>255264700</v>
       </c>
       <c r="E54" s="3">
-        <v>231326700</v>
+        <v>229429000</v>
       </c>
       <c r="F54" s="3">
-        <v>219173500</v>
+        <v>217375600</v>
       </c>
       <c r="G54" s="3">
-        <v>202588100</v>
+        <v>200926200</v>
       </c>
       <c r="H54" s="3">
-        <v>194575400</v>
+        <v>192979200</v>
       </c>
       <c r="I54" s="3">
-        <v>170208100</v>
+        <v>168811800</v>
       </c>
       <c r="J54" s="3">
-        <v>138567500</v>
+        <v>137430800</v>
       </c>
       <c r="K54" s="3">
         <v>128849800</v>
@@ -3012,25 +3012,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1004600</v>
+        <v>996400</v>
       </c>
       <c r="E57" s="3">
-        <v>938300</v>
+        <v>930600</v>
       </c>
       <c r="F57" s="3">
-        <v>950400</v>
+        <v>942600</v>
       </c>
       <c r="G57" s="3">
-        <v>1015000</v>
+        <v>1006600</v>
       </c>
       <c r="H57" s="3">
-        <v>976200</v>
+        <v>968200</v>
       </c>
       <c r="I57" s="3">
-        <v>1028800</v>
+        <v>1020300</v>
       </c>
       <c r="J57" s="3">
-        <v>798600</v>
+        <v>792100</v>
       </c>
       <c r="K57" s="3">
         <v>875800</v>
@@ -3118,25 +3118,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8307000</v>
+        <v>8238900</v>
       </c>
       <c r="E59" s="3">
-        <v>7215300</v>
+        <v>7156100</v>
       </c>
       <c r="F59" s="3">
-        <v>7693100</v>
+        <v>7630000</v>
       </c>
       <c r="G59" s="3">
-        <v>6081900</v>
+        <v>6032000</v>
       </c>
       <c r="H59" s="3">
-        <v>7452100</v>
+        <v>7390900</v>
       </c>
       <c r="I59" s="3">
-        <v>6263100</v>
+        <v>6211700</v>
       </c>
       <c r="J59" s="3">
-        <v>4771700</v>
+        <v>4732500</v>
       </c>
       <c r="K59" s="3">
         <v>5124600</v>
@@ -3224,25 +3224,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18947300</v>
+        <v>18791900</v>
       </c>
       <c r="E61" s="3">
-        <v>14573000</v>
+        <v>14453500</v>
       </c>
       <c r="F61" s="3">
-        <v>14320300</v>
+        <v>14202800</v>
       </c>
       <c r="G61" s="3">
-        <v>12464400</v>
+        <v>12362200</v>
       </c>
       <c r="H61" s="3">
-        <v>12513300</v>
+        <v>12410600</v>
       </c>
       <c r="I61" s="3">
-        <v>11622500</v>
+        <v>11527200</v>
       </c>
       <c r="J61" s="3">
-        <v>11372100</v>
+        <v>11278800</v>
       </c>
       <c r="K61" s="3">
         <v>11898900</v>
@@ -3489,25 +3489,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>226842100</v>
+        <v>224981200</v>
       </c>
       <c r="E66" s="3">
-        <v>202797100</v>
+        <v>201133500</v>
       </c>
       <c r="F66" s="3">
-        <v>192847700</v>
+        <v>191265700</v>
       </c>
       <c r="G66" s="3">
-        <v>177999900</v>
+        <v>176539700</v>
       </c>
       <c r="H66" s="3">
-        <v>171498800</v>
+        <v>170091900</v>
       </c>
       <c r="I66" s="3">
-        <v>149109100</v>
+        <v>147885900</v>
       </c>
       <c r="J66" s="3">
-        <v>124254400</v>
+        <v>123235100</v>
       </c>
       <c r="K66" s="3">
         <v>114674800</v>
@@ -3775,25 +3775,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20509300</v>
+        <v>20341100</v>
       </c>
       <c r="E72" s="3">
-        <v>18064800</v>
+        <v>17916600</v>
       </c>
       <c r="F72" s="3">
-        <v>16245700</v>
+        <v>16112500</v>
       </c>
       <c r="G72" s="3">
-        <v>14321000</v>
+        <v>14203500</v>
       </c>
       <c r="H72" s="3">
-        <v>13035700</v>
+        <v>12928800</v>
       </c>
       <c r="I72" s="3">
-        <v>11295000</v>
+        <v>11202400</v>
       </c>
       <c r="J72" s="3">
-        <v>8486700</v>
+        <v>8417100</v>
       </c>
       <c r="K72" s="3">
         <v>7720400</v>
@@ -3987,25 +3987,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30534000</v>
+        <v>30283500</v>
       </c>
       <c r="E76" s="3">
-        <v>28529600</v>
+        <v>28295500</v>
       </c>
       <c r="F76" s="3">
-        <v>26325900</v>
+        <v>26109900</v>
       </c>
       <c r="G76" s="3">
-        <v>24588300</v>
+        <v>24386600</v>
       </c>
       <c r="H76" s="3">
-        <v>23076700</v>
+        <v>22887400</v>
       </c>
       <c r="I76" s="3">
-        <v>21098900</v>
+        <v>20925800</v>
       </c>
       <c r="J76" s="3">
-        <v>14313100</v>
+        <v>14195600</v>
       </c>
       <c r="K76" s="3">
         <v>14175000</v>
@@ -4151,25 +4151,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2446700</v>
+        <v>2426600</v>
       </c>
       <c r="E81" s="3">
-        <v>2258700</v>
+        <v>2240100</v>
       </c>
       <c r="F81" s="3">
-        <v>1926500</v>
+        <v>1910600</v>
       </c>
       <c r="G81" s="3">
-        <v>2047200</v>
+        <v>2030400</v>
       </c>
       <c r="H81" s="3">
-        <v>1746800</v>
+        <v>1732400</v>
       </c>
       <c r="I81" s="3">
-        <v>1425900</v>
+        <v>1414200</v>
       </c>
       <c r="J81" s="3">
-        <v>1456400</v>
+        <v>1444500</v>
       </c>
       <c r="K81" s="3">
         <v>1300100</v>
@@ -4225,25 +4225,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110500</v>
+        <v>109600</v>
       </c>
       <c r="E83" s="3">
-        <v>94500</v>
+        <v>93700</v>
       </c>
       <c r="F83" s="3">
-        <v>88100</v>
+        <v>87300</v>
       </c>
       <c r="G83" s="3">
-        <v>80900</v>
+        <v>80200</v>
       </c>
       <c r="H83" s="3">
-        <v>75900</v>
+        <v>75300</v>
       </c>
       <c r="I83" s="3">
-        <v>80100</v>
+        <v>79400</v>
       </c>
       <c r="J83" s="3">
-        <v>82500</v>
+        <v>81900</v>
       </c>
       <c r="K83" s="3">
         <v>70800</v>
@@ -4543,25 +4543,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4141900</v>
+        <v>4107900</v>
       </c>
       <c r="E89" s="3">
-        <v>2940700</v>
+        <v>2916600</v>
       </c>
       <c r="F89" s="3">
-        <v>4559700</v>
+        <v>4522300</v>
       </c>
       <c r="G89" s="3">
-        <v>6676700</v>
+        <v>6622000</v>
       </c>
       <c r="H89" s="3">
-        <v>-1048300</v>
+        <v>-1039700</v>
       </c>
       <c r="I89" s="3">
-        <v>3135000</v>
+        <v>3109300</v>
       </c>
       <c r="J89" s="3">
-        <v>927200</v>
+        <v>919600</v>
       </c>
       <c r="K89" s="3">
         <v>1385100</v>
@@ -4617,25 +4617,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-185200</v>
+        <v>-15195200</v>
       </c>
       <c r="E91" s="3">
-        <v>-135700</v>
+        <v>-11129200</v>
       </c>
       <c r="F91" s="3">
-        <v>-109200</v>
+        <v>-8957800</v>
       </c>
       <c r="G91" s="3">
-        <v>-107900</v>
+        <v>-8848700</v>
       </c>
       <c r="H91" s="3">
-        <v>-125300</v>
+        <v>-10276000</v>
       </c>
       <c r="I91" s="3">
-        <v>-97700</v>
+        <v>-8018300</v>
       </c>
       <c r="J91" s="3">
-        <v>-102800</v>
+        <v>-8433300</v>
       </c>
       <c r="K91" s="3">
         <v>-102300</v>
@@ -4776,25 +4776,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24295000</v>
+        <v>-24095700</v>
       </c>
       <c r="E94" s="3">
-        <v>-15959800</v>
+        <v>-15828900</v>
       </c>
       <c r="F94" s="3">
-        <v>-14624900</v>
+        <v>-14505000</v>
       </c>
       <c r="G94" s="3">
-        <v>-16107900</v>
+        <v>-15975700</v>
       </c>
       <c r="H94" s="3">
-        <v>-15685500</v>
+        <v>-15556900</v>
       </c>
       <c r="I94" s="3">
-        <v>-10528900</v>
+        <v>-10442500</v>
       </c>
       <c r="J94" s="3">
-        <v>-10103100</v>
+        <v>-10020200</v>
       </c>
       <c r="K94" s="3">
         <v>-9149700</v>
@@ -4853,7 +4853,7 @@
         <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-439600</v>
+        <v>-436000</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
@@ -4862,13 +4862,13 @@
         <v>-300</v>
       </c>
       <c r="H96" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="I96" s="3">
-        <v>-803900</v>
+        <v>-797300</v>
       </c>
       <c r="J96" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K96" s="3">
         <v>-527400</v>
@@ -5062,25 +5062,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24573400</v>
+        <v>24371800</v>
       </c>
       <c r="E100" s="3">
-        <v>10925200</v>
+        <v>10835600</v>
       </c>
       <c r="F100" s="3">
-        <v>14590500</v>
+        <v>14470800</v>
       </c>
       <c r="G100" s="3">
-        <v>8794400</v>
+        <v>8722300</v>
       </c>
       <c r="H100" s="3">
-        <v>15225900</v>
+        <v>15101000</v>
       </c>
       <c r="I100" s="3">
-        <v>7274200</v>
+        <v>7214500</v>
       </c>
       <c r="J100" s="3">
-        <v>11839200</v>
+        <v>11742100</v>
       </c>
       <c r="K100" s="3">
         <v>7058000</v>
@@ -5115,25 +5115,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="E101" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="F101" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="G101" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="H101" s="3">
-        <v>104900</v>
+        <v>104100</v>
       </c>
       <c r="I101" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="J101" s="3">
-        <v>-115600</v>
+        <v>-114600</v>
       </c>
       <c r="K101" s="3">
         <v>82800</v>
@@ -5168,25 +5168,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4438600</v>
+        <v>4402200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2106200</v>
+        <v>-2088900</v>
       </c>
       <c r="F102" s="3">
-        <v>4542200</v>
+        <v>4504900</v>
       </c>
       <c r="G102" s="3">
-        <v>-656800</v>
+        <v>-651400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1403000</v>
+        <v>-1391500</v>
       </c>
       <c r="I102" s="3">
-        <v>-95300</v>
+        <v>-94500</v>
       </c>
       <c r="J102" s="3">
-        <v>2547700</v>
+        <v>2526800</v>
       </c>
       <c r="K102" s="3">
         <v>-623800</v>
